--- a/django_backend/core/resources/screen/ScreenDfn.xlsx
+++ b/django_backend/core/resources/screen/ScreenDfn.xlsx
@@ -1057,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T247"/>
+  <dimension ref="A1:T248"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250227152403</v>
+        <v>20250821090900</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1447,6 +1447,7 @@
       <c r="I19" s="11" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="6" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
           <t>dialogWidgetPramsRc</t>
@@ -1468,6 +1469,7 @@
       <c r="I20" s="11" t="n"/>
     </row>
     <row r="21">
+      <c r="A21" s="6" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
           <t>dialogWidgetDialogPramsRc</t>
@@ -1489,6 +1491,7 @@
       <c r="I21" s="11" t="n"/>
     </row>
     <row r="22">
+      <c r="A22" s="6" t="n"/>
       <c r="C22" s="11" t="inlineStr">
         <is>
           <t>fgHeaderFooterRc</t>
@@ -1510,6 +1513,7 @@
       <c r="I22" s="11" t="n"/>
     </row>
     <row r="23">
+      <c r="A23" s="6" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
           <t>fgHeaderFooterRcs</t>
@@ -1531,6 +1535,7 @@
       <c r="I23" s="11" t="n"/>
     </row>
     <row r="24">
+      <c r="A24" s="6" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
           <t>fgLinkRc</t>
@@ -1552,6 +1557,7 @@
       <c r="I24" s="11" t="n"/>
     </row>
     <row r="25">
+      <c r="A25" s="6" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
           <t>fgLinkRcs</t>
@@ -1573,6 +1579,7 @@
       <c r="I25" s="11" t="n"/>
     </row>
     <row r="26">
+      <c r="A26" s="6" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t>fieldGroupRc</t>
@@ -1594,6 +1601,7 @@
       <c r="I26" s="11" t="n"/>
     </row>
     <row r="27">
+      <c r="A27" s="6" t="n"/>
       <c r="C27" s="11" t="inlineStr">
         <is>
           <t>fieldGroupRcs</t>
@@ -1619,6 +1627,7 @@
       <c r="I27" s="11" t="n"/>
     </row>
     <row r="28">
+      <c r="A28" s="6" t="n"/>
       <c r="C28" s="11" t="inlineStr">
         <is>
           <t>fieldRcs</t>
@@ -1644,6 +1653,7 @@
       <c r="I28" s="11" t="n"/>
     </row>
     <row r="29">
+      <c r="A29" s="6" t="n"/>
       <c r="C29" s="11" t="inlineStr">
         <is>
           <t>recordsetRcs</t>
@@ -1669,6 +1679,7 @@
       <c r="I29" s="11" t="n"/>
     </row>
     <row r="30">
+      <c r="A30" s="6" t="n"/>
       <c r="C30" s="11" t="inlineStr">
         <is>
           <t>screenDfnRcs</t>
@@ -1690,6 +1701,7 @@
       <c r="I30" s="11" t="n"/>
     </row>
     <row r="31">
+      <c r="A31" s="6" t="n"/>
       <c r="C31" s="11" t="inlineStr">
         <is>
           <t>screenRc</t>
@@ -1711,6 +1723,7 @@
       <c r="I31" s="11" t="n"/>
     </row>
     <row r="32">
+      <c r="A32" s="6" t="n"/>
       <c r="C32" s="11" t="inlineStr">
         <is>
           <t>screenSelectRc</t>
@@ -1943,6 +1956,7 @@
       <c r="T38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
           <t>screenToolbar1</t>
@@ -1975,6 +1989,7 @@
       <c r="T39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="inlineStr">
         <is>
           <t>screenSelectionFg</t>
@@ -2011,6 +2026,7 @@
       <c r="T40" s="11" t="n"/>
     </row>
     <row r="41">
+      <c r="B41" s="1" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
           <t>screenDtlFg</t>
@@ -2051,6 +2067,7 @@
       <c r="T41" s="11" t="n"/>
     </row>
     <row r="42">
+      <c r="B42" s="1" t="n"/>
       <c r="C42" s="11" t="inlineStr">
         <is>
           <t>screenToolbar2</t>
@@ -2083,6 +2100,7 @@
       <c r="T42" s="11" t="n"/>
     </row>
     <row r="43">
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="11" t="inlineStr">
         <is>
           <t>recordsetListFg</t>
@@ -2135,6 +2153,7 @@
       <c r="T43" s="11" t="n"/>
     </row>
     <row r="44">
+      <c r="B44" s="1" t="n"/>
       <c r="C44" s="11" t="inlineStr">
         <is>
           <t>recordsetToolbar</t>
@@ -2167,6 +2186,7 @@
       <c r="T44" s="11" t="n"/>
     </row>
     <row r="45">
+      <c r="B45" s="1" t="n"/>
       <c r="C45" s="11" t="inlineStr">
         <is>
           <t>fieldGroupListFg</t>
@@ -2188,7 +2208,11 @@
         </is>
       </c>
       <c r="G45" s="11" t="n"/>
-      <c r="H45" s="11" t="n"/>
+      <c r="H45" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I45" s="11" t="n"/>
       <c r="J45" s="11" t="inlineStr">
         <is>
@@ -2207,6 +2231,7 @@
       <c r="T45" s="11" t="n"/>
     </row>
     <row r="46">
+      <c r="B46" s="1" t="n"/>
       <c r="C46" s="11" t="inlineStr">
         <is>
           <t>fieldGroupDtlFg</t>
@@ -2255,6 +2280,7 @@
       <c r="T46" s="11" t="n"/>
     </row>
     <row r="47">
+      <c r="B47" s="1" t="n"/>
       <c r="C47" s="11" t="inlineStr">
         <is>
           <t>fieldListFg</t>
@@ -2307,6 +2333,7 @@
       <c r="T47" s="11" t="n"/>
     </row>
     <row r="48">
+      <c r="B48" s="1" t="n"/>
       <c r="C48" s="11" t="inlineStr">
         <is>
           <t>fgToolbar</t>
@@ -2339,6 +2366,7 @@
       <c r="T48" s="11" t="n"/>
     </row>
     <row r="49">
+      <c r="B49" s="1" t="n"/>
       <c r="C49" s="11" t="inlineStr">
         <is>
           <t>subScreenFg</t>
@@ -2391,6 +2419,7 @@
       <c r="T49" s="11" t="n"/>
     </row>
     <row r="50">
+      <c r="B50" s="1" t="n"/>
       <c r="C50" s="11" t="inlineStr">
         <is>
           <t>subScreenToolbar</t>
@@ -2423,6 +2452,7 @@
       <c r="T50" s="11" t="n"/>
     </row>
     <row r="51">
+      <c r="B51" s="1" t="n"/>
       <c r="C51" s="11" t="inlineStr">
         <is>
           <t>fgLinkListFg</t>
@@ -2444,7 +2474,11 @@
         </is>
       </c>
       <c r="G51" s="11" t="n"/>
-      <c r="H51" s="11" t="n"/>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I51" s="11" t="n"/>
       <c r="J51" s="11" t="inlineStr">
         <is>
@@ -2463,6 +2497,7 @@
       <c r="T51" s="11" t="n"/>
     </row>
     <row r="52">
+      <c r="B52" s="1" t="n"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
           <t>fgLinkDtlFg</t>
@@ -2503,6 +2538,7 @@
       <c r="T52" s="11" t="n"/>
     </row>
     <row r="53">
+      <c r="B53" s="1" t="n"/>
       <c r="C53" s="11" t="inlineStr">
         <is>
           <t>fgLinkToolbar</t>
@@ -2535,6 +2571,7 @@
       <c r="T53" s="11" t="n"/>
     </row>
     <row r="54">
+      <c r="B54" s="1" t="n"/>
       <c r="C54" s="11" t="inlineStr">
         <is>
           <t>fgHeaderFooterListFg</t>
@@ -2556,7 +2593,11 @@
         </is>
       </c>
       <c r="G54" s="11" t="n"/>
-      <c r="H54" s="11" t="n"/>
+      <c r="H54" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I54" s="11" t="n"/>
       <c r="J54" s="11" t="inlineStr">
         <is>
@@ -2575,6 +2616,7 @@
       <c r="T54" s="11" t="n"/>
     </row>
     <row r="55">
+      <c r="B55" s="1" t="n"/>
       <c r="C55" s="11" t="inlineStr">
         <is>
           <t>fgHeaderFooterDtlFg</t>
@@ -2615,6 +2657,7 @@
       <c r="T55" s="11" t="n"/>
     </row>
     <row r="56">
+      <c r="B56" s="1" t="n"/>
       <c r="C56" s="11" t="inlineStr">
         <is>
           <t>fgHeaderFooterToolbar</t>
@@ -2647,6 +2690,7 @@
       <c r="T56" s="11" t="n"/>
     </row>
     <row r="57">
+      <c r="B57" s="1" t="n"/>
       <c r="C57" s="11" t="inlineStr">
         <is>
           <t>dialogDeleteScreenHtml</t>
@@ -2675,6 +2719,7 @@
       <c r="T57" s="11" t="n"/>
     </row>
     <row r="58">
+      <c r="B58" s="1" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
           <t>dialogResetRevFg</t>
@@ -2707,6 +2752,7 @@
       <c r="T58" s="11" t="n"/>
     </row>
     <row r="59">
+      <c r="B59" s="1" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
           <t>dialogCopyPramsFg</t>
@@ -2739,6 +2785,7 @@
       <c r="T59" s="11" t="n"/>
     </row>
     <row r="60">
+      <c r="B60" s="1" t="n"/>
       <c r="C60" s="11" t="inlineStr">
         <is>
           <t>dialogWidgetPramsFg</t>
@@ -2775,6 +2822,7 @@
       <c r="T60" s="11" t="n"/>
     </row>
     <row r="61">
+      <c r="B61" s="1" t="n"/>
       <c r="C61" s="11" t="inlineStr">
         <is>
           <t>dialogWidgetDialogPramsFg</t>
@@ -2815,6 +2863,7 @@
       <c r="T61" s="11" t="n"/>
     </row>
     <row r="62">
+      <c r="B62" s="1" t="n"/>
       <c r="C62" s="11" t="inlineStr">
         <is>
           <t>dialogAdditionalPropsFg</t>
@@ -3031,6 +3080,7 @@
       <c r="P68" s="11" t="n"/>
     </row>
     <row r="69">
+      <c r="B69" s="1" t="n"/>
       <c r="C69" s="11" t="inlineStr">
         <is>
           <t>screenToolbar1</t>
@@ -3071,6 +3121,7 @@
       <c r="P69" s="11" t="n"/>
     </row>
     <row r="70">
+      <c r="B70" s="1" t="n"/>
       <c r="C70" s="11" t="n"/>
       <c r="D70" s="11" t="inlineStr">
         <is>
@@ -3108,6 +3159,7 @@
       <c r="P70" s="11" t="n"/>
     </row>
     <row r="71">
+      <c r="B71" s="1" t="n"/>
       <c r="C71" s="11" t="n"/>
       <c r="D71" s="11" t="inlineStr">
         <is>
@@ -3145,6 +3197,7 @@
       <c r="P71" s="11" t="n"/>
     </row>
     <row r="72">
+      <c r="B72" s="1" t="n"/>
       <c r="C72" s="11" t="n"/>
       <c r="D72" s="11" t="inlineStr">
         <is>
@@ -3181,6 +3234,7 @@
       <c r="P72" s="11" t="n"/>
     </row>
     <row r="73">
+      <c r="B73" s="1" t="n"/>
       <c r="C73" s="11" t="n"/>
       <c r="D73" s="11" t="inlineStr">
         <is>
@@ -3218,6 +3272,7 @@
       <c r="P73" s="11" t="n"/>
     </row>
     <row r="74">
+      <c r="B74" s="1" t="n"/>
       <c r="C74" s="11" t="inlineStr">
         <is>
           <t>screenSelectionFg</t>
@@ -3260,6 +3315,7 @@
       <c r="P74" s="11" t="n"/>
     </row>
     <row r="75">
+      <c r="B75" s="1" t="n"/>
       <c r="C75" s="11" t="inlineStr">
         <is>
           <t>screenDtlFg</t>
@@ -3272,7 +3328,7 @@
       </c>
       <c r="E75" s="11" t="inlineStr">
         <is>
-          <t>API Version:</t>
+          <t>Template Version:</t>
         </is>
       </c>
       <c r="F75" s="11" t="n"/>
@@ -3288,7 +3344,7 @@
       <c r="L75" s="11" t="n"/>
       <c r="M75" s="11" t="inlineStr">
         <is>
-          <t>api_version</t>
+          <t>template_version</t>
         </is>
       </c>
       <c r="N75" s="11" t="n"/>
@@ -3300,6 +3356,7 @@
       <c r="P75" s="11" t="n"/>
     </row>
     <row r="76">
+      <c r="B76" s="1" t="n"/>
       <c r="C76" s="11" t="n"/>
       <c r="D76" s="11" t="inlineStr">
         <is>
@@ -3336,6 +3393,7 @@
       <c r="P76" s="11" t="n"/>
     </row>
     <row r="77">
+      <c r="B77" s="1" t="n"/>
       <c r="C77" s="11" t="n"/>
       <c r="D77" s="11" t="inlineStr">
         <is>
@@ -3372,6 +3430,7 @@
       <c r="P77" s="11" t="n"/>
     </row>
     <row r="78">
+      <c r="B78" s="1" t="n"/>
       <c r="C78" s="11" t="n"/>
       <c r="D78" s="11" t="inlineStr">
         <is>
@@ -3408,6 +3467,7 @@
       <c r="P78" s="11" t="n"/>
     </row>
     <row r="79">
+      <c r="B79" s="1" t="n"/>
       <c r="C79" s="11" t="n"/>
       <c r="D79" s="11" t="inlineStr">
         <is>
@@ -3448,6 +3508,7 @@
       <c r="P79" s="11" t="n"/>
     </row>
     <row r="80">
+      <c r="B80" s="1" t="n"/>
       <c r="C80" s="11" t="n"/>
       <c r="D80" s="11" t="inlineStr">
         <is>
@@ -3484,6 +3545,7 @@
       <c r="P80" s="11" t="n"/>
     </row>
     <row r="81">
+      <c r="B81" s="1" t="n"/>
       <c r="C81" s="11" t="n"/>
       <c r="D81" s="11" t="inlineStr">
         <is>
@@ -3520,6 +3582,7 @@
       <c r="P81" s="11" t="n"/>
     </row>
     <row r="82">
+      <c r="B82" s="1" t="n"/>
       <c r="C82" s="11" t="n"/>
       <c r="D82" s="11" t="inlineStr">
         <is>
@@ -3556,6 +3619,7 @@
       <c r="P82" s="11" t="n"/>
     </row>
     <row r="83">
+      <c r="B83" s="1" t="n"/>
       <c r="C83" s="11" t="n"/>
       <c r="D83" s="11" t="inlineStr">
         <is>
@@ -3592,6 +3656,7 @@
       <c r="P83" s="11" t="n"/>
     </row>
     <row r="84">
+      <c r="B84" s="1" t="n"/>
       <c r="C84" s="11" t="n"/>
       <c r="D84" s="11" t="inlineStr">
         <is>
@@ -3624,6 +3689,7 @@
       <c r="P84" s="11" t="n"/>
     </row>
     <row r="85">
+      <c r="B85" s="1" t="n"/>
       <c r="C85" s="11" t="n"/>
       <c r="D85" s="11" t="inlineStr">
         <is>
@@ -3660,6 +3726,7 @@
       <c r="P85" s="11" t="n"/>
     </row>
     <row r="86">
+      <c r="B86" s="1" t="n"/>
       <c r="C86" s="11" t="n"/>
       <c r="D86" s="11" t="inlineStr">
         <is>
@@ -3696,6 +3763,7 @@
       <c r="P86" s="11" t="n"/>
     </row>
     <row r="87">
+      <c r="B87" s="1" t="n"/>
       <c r="C87" s="11" t="n"/>
       <c r="D87" s="11" t="inlineStr">
         <is>
@@ -3732,6 +3800,7 @@
       <c r="P87" s="11" t="n"/>
     </row>
     <row r="88">
+      <c r="B88" s="1" t="n"/>
       <c r="C88" s="11" t="inlineStr">
         <is>
           <t>screenToolbar2</t>
@@ -3772,6 +3841,7 @@
       <c r="P88" s="11" t="n"/>
     </row>
     <row r="89">
+      <c r="B89" s="1" t="n"/>
       <c r="C89" s="11" t="n"/>
       <c r="D89" s="11" t="inlineStr">
         <is>
@@ -3809,6 +3879,7 @@
       <c r="P89" s="11" t="n"/>
     </row>
     <row r="90">
+      <c r="B90" s="1" t="n"/>
       <c r="C90" s="11" t="n"/>
       <c r="D90" s="11" t="inlineStr">
         <is>
@@ -3846,6 +3917,7 @@
       <c r="P90" s="11" t="n"/>
     </row>
     <row r="91">
+      <c r="B91" s="1" t="n"/>
       <c r="C91" s="11" t="n"/>
       <c r="D91" s="11" t="inlineStr">
         <is>
@@ -3883,6 +3955,7 @@
       <c r="P91" s="11" t="n"/>
     </row>
     <row r="92">
+      <c r="B92" s="1" t="n"/>
       <c r="C92" s="11" t="n"/>
       <c r="D92" s="11" t="inlineStr">
         <is>
@@ -3920,6 +3993,7 @@
       <c r="P92" s="11" t="n"/>
     </row>
     <row r="93">
+      <c r="B93" s="1" t="n"/>
       <c r="C93" s="11" t="n"/>
       <c r="D93" s="11" t="inlineStr">
         <is>
@@ -3957,6 +4031,7 @@
       <c r="P93" s="11" t="n"/>
     </row>
     <row r="94">
+      <c r="B94" s="1" t="n"/>
       <c r="C94" s="11" t="n"/>
       <c r="D94" s="11" t="inlineStr">
         <is>
@@ -3993,6 +4068,7 @@
       <c r="P94" s="11" t="n"/>
     </row>
     <row r="95">
+      <c r="B95" s="1" t="n"/>
       <c r="C95" s="11" t="inlineStr">
         <is>
           <t>recordsetListFg</t>
@@ -4029,6 +4105,7 @@
       <c r="P95" s="11" t="n"/>
     </row>
     <row r="96">
+      <c r="B96" s="1" t="n"/>
       <c r="C96" s="11" t="n"/>
       <c r="D96" s="11" t="inlineStr">
         <is>
@@ -4061,6 +4138,7 @@
       <c r="P96" s="11" t="n"/>
     </row>
     <row r="97">
+      <c r="B97" s="1" t="n"/>
       <c r="C97" s="11" t="n"/>
       <c r="D97" s="11" t="inlineStr">
         <is>
@@ -4097,6 +4175,7 @@
       <c r="P97" s="11" t="n"/>
     </row>
     <row r="98">
+      <c r="B98" s="1" t="n"/>
       <c r="C98" s="11" t="n"/>
       <c r="D98" s="11" t="inlineStr">
         <is>
@@ -4129,6 +4208,7 @@
       <c r="P98" s="11" t="n"/>
     </row>
     <row r="99">
+      <c r="B99" s="1" t="n"/>
       <c r="C99" s="11" t="n"/>
       <c r="D99" s="11" t="inlineStr">
         <is>
@@ -4161,6 +4241,7 @@
       <c r="P99" s="11" t="n"/>
     </row>
     <row r="100">
+      <c r="B100" s="1" t="n"/>
       <c r="C100" s="11" t="n"/>
       <c r="D100" s="11" t="inlineStr">
         <is>
@@ -4193,6 +4274,7 @@
       <c r="P100" s="11" t="n"/>
     </row>
     <row r="101">
+      <c r="B101" s="1" t="n"/>
       <c r="C101" s="11" t="n"/>
       <c r="D101" s="11" t="inlineStr">
         <is>
@@ -4225,6 +4307,7 @@
       <c r="P101" s="11" t="n"/>
     </row>
     <row r="102">
+      <c r="B102" s="1" t="n"/>
       <c r="C102" s="11" t="n"/>
       <c r="D102" s="11" t="inlineStr">
         <is>
@@ -4257,6 +4340,7 @@
       <c r="P102" s="11" t="n"/>
     </row>
     <row r="103">
+      <c r="B103" s="1" t="n"/>
       <c r="C103" s="11" t="inlineStr">
         <is>
           <t>recordsetToolbar</t>
@@ -4297,6 +4381,7 @@
       <c r="P103" s="11" t="n"/>
     </row>
     <row r="104">
+      <c r="B104" s="1" t="n"/>
       <c r="C104" s="11" t="inlineStr">
         <is>
           <t>fieldGroupListFg</t>
@@ -4333,6 +4418,7 @@
       <c r="P104" s="11" t="n"/>
     </row>
     <row r="105">
+      <c r="B105" s="1" t="n"/>
       <c r="C105" s="11" t="n"/>
       <c r="D105" s="11" t="inlineStr">
         <is>
@@ -4365,6 +4451,7 @@
       <c r="P105" s="11" t="n"/>
     </row>
     <row r="106">
+      <c r="B106" s="1" t="n"/>
       <c r="C106" s="11" t="n"/>
       <c r="D106" s="11" t="inlineStr">
         <is>
@@ -4397,6 +4484,7 @@
       <c r="P106" s="11" t="n"/>
     </row>
     <row r="107">
+      <c r="B107" s="1" t="n"/>
       <c r="C107" s="11" t="n"/>
       <c r="D107" s="11" t="inlineStr">
         <is>
@@ -4429,6 +4517,7 @@
       <c r="P107" s="11" t="n"/>
     </row>
     <row r="108">
+      <c r="B108" s="1" t="n"/>
       <c r="C108" s="11" t="n"/>
       <c r="D108" s="11" t="inlineStr">
         <is>
@@ -4461,6 +4550,7 @@
       <c r="P108" s="11" t="n"/>
     </row>
     <row r="109">
+      <c r="B109" s="1" t="n"/>
       <c r="C109" s="11" t="n"/>
       <c r="D109" s="11" t="inlineStr">
         <is>
@@ -4493,6 +4583,7 @@
       <c r="P109" s="11" t="n"/>
     </row>
     <row r="110">
+      <c r="B110" s="1" t="n"/>
       <c r="C110" s="11" t="n"/>
       <c r="D110" s="11" t="inlineStr">
         <is>
@@ -4525,6 +4616,7 @@
       <c r="P110" s="11" t="n"/>
     </row>
     <row r="111">
+      <c r="B111" s="1" t="n"/>
       <c r="C111" s="11" t="n"/>
       <c r="D111" s="11" t="inlineStr">
         <is>
@@ -4557,6 +4649,7 @@
       <c r="P111" s="11" t="n"/>
     </row>
     <row r="112">
+      <c r="B112" s="1" t="n"/>
       <c r="C112" s="11" t="n"/>
       <c r="D112" s="11" t="inlineStr">
         <is>
@@ -4589,6 +4682,7 @@
       <c r="P112" s="11" t="n"/>
     </row>
     <row r="113">
+      <c r="B113" s="1" t="n"/>
       <c r="C113" s="11" t="n"/>
       <c r="D113" s="11" t="inlineStr">
         <is>
@@ -4621,6 +4715,7 @@
       <c r="P113" s="11" t="n"/>
     </row>
     <row r="114">
+      <c r="B114" s="1" t="n"/>
       <c r="C114" s="11" t="n"/>
       <c r="D114" s="11" t="inlineStr">
         <is>
@@ -4653,6 +4748,7 @@
       <c r="P114" s="11" t="n"/>
     </row>
     <row r="115">
+      <c r="B115" s="1" t="n"/>
       <c r="C115" s="11" t="n"/>
       <c r="D115" s="11" t="inlineStr">
         <is>
@@ -4685,6 +4781,7 @@
       <c r="P115" s="11" t="n"/>
     </row>
     <row r="116">
+      <c r="B116" s="1" t="n"/>
       <c r="C116" s="11" t="n"/>
       <c r="D116" s="11" t="inlineStr">
         <is>
@@ -4717,6 +4814,7 @@
       <c r="P116" s="11" t="n"/>
     </row>
     <row r="117">
+      <c r="B117" s="1" t="n"/>
       <c r="C117" s="11" t="n"/>
       <c r="D117" s="11" t="inlineStr">
         <is>
@@ -4749,6 +4847,7 @@
       <c r="P117" s="11" t="n"/>
     </row>
     <row r="118">
+      <c r="B118" s="1" t="n"/>
       <c r="C118" s="11" t="n"/>
       <c r="D118" s="11" t="inlineStr">
         <is>
@@ -4781,6 +4880,7 @@
       <c r="P118" s="11" t="n"/>
     </row>
     <row r="119">
+      <c r="B119" s="1" t="n"/>
       <c r="C119" s="11" t="n"/>
       <c r="D119" s="11" t="inlineStr">
         <is>
@@ -4813,13 +4913,22 @@
       <c r="P119" s="11" t="n"/>
     </row>
     <row r="120">
-      <c r="C120" s="11" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="11" t="inlineStr">
+        <is>
+          <t>fieldGroupDtlFg</t>
+        </is>
+      </c>
       <c r="D120" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
-        </is>
-      </c>
-      <c r="E120" s="11" t="n"/>
+          <t>dtlFgSeqField</t>
+        </is>
+      </c>
+      <c r="E120" s="11" t="inlineStr">
+        <is>
+          <t>Seq</t>
+        </is>
+      </c>
       <c r="F120" s="11" t="n"/>
       <c r="G120" s="11" t="n"/>
       <c r="H120" s="11" t="n"/>
@@ -4827,37 +4936,34 @@
       <c r="J120" s="11" t="n"/>
       <c r="K120" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L120" s="11" t="n"/>
       <c r="M120" s="11" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N120" s="11" t="inlineStr">
-        <is>
-          <t>openFieldGroup(@id)</t>
-        </is>
-      </c>
-      <c r="O120" s="11" t="n"/>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="N120" s="11" t="n"/>
+      <c r="O120" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P120" s="11" t="n"/>
     </row>
     <row r="121">
-      <c r="C121" s="11" t="inlineStr">
-        <is>
-          <t>fieldGroupDtlFg</t>
-        </is>
-      </c>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="11" t="n"/>
       <c r="D121" s="11" t="inlineStr">
         <is>
-          <t>dtlFgSeqField</t>
+          <t>dtlFgNmField</t>
         </is>
       </c>
       <c r="E121" s="11" t="inlineStr">
         <is>
-          <t>Seq</t>
+          <t>Field Group Name</t>
         </is>
       </c>
       <c r="F121" s="11" t="n"/>
@@ -4873,7 +4979,7 @@
       <c r="L121" s="11" t="n"/>
       <c r="M121" s="11" t="inlineStr">
         <is>
-          <t>seq</t>
+          <t>fg_nm</t>
         </is>
       </c>
       <c r="N121" s="11" t="n"/>
@@ -4885,15 +4991,16 @@
       <c r="P121" s="11" t="n"/>
     </row>
     <row r="122">
+      <c r="B122" s="1" t="n"/>
       <c r="C122" s="11" t="n"/>
       <c r="D122" s="11" t="inlineStr">
         <is>
-          <t>dtlFgNmField</t>
+          <t>dtlFgTypeField</t>
         </is>
       </c>
       <c r="E122" s="11" t="inlineStr">
         <is>
-          <t>Field Group Name</t>
+          <t>Group Type</t>
         </is>
       </c>
       <c r="F122" s="11" t="n"/>
@@ -4903,13 +5010,18 @@
       <c r="J122" s="11" t="n"/>
       <c r="K122" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L122" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L122" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFgTypes
+values: {"value": "id", "display": "type_nm"}</t>
+        </is>
+      </c>
       <c r="M122" s="11" t="inlineStr">
         <is>
-          <t>fg_nm</t>
+          <t>fg_type_id</t>
         </is>
       </c>
       <c r="N122" s="11" t="n"/>
@@ -4921,15 +5033,16 @@
       <c r="P122" s="11" t="n"/>
     </row>
     <row r="123">
+      <c r="B123" s="1" t="n"/>
       <c r="C123" s="11" t="n"/>
       <c r="D123" s="11" t="inlineStr">
         <is>
-          <t>dtlFgTypeField</t>
+          <t>dtlFgCaptionField</t>
         </is>
       </c>
       <c r="E123" s="11" t="inlineStr">
         <is>
-          <t>Group Type</t>
+          <t>Caption</t>
         </is>
       </c>
       <c r="F123" s="11" t="n"/>
@@ -4939,18 +5052,13 @@
       <c r="J123" s="11" t="n"/>
       <c r="K123" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L123" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getFgTypes
-values: {"value": "id", "display": "type_nm"}</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L123" s="11" t="n"/>
       <c r="M123" s="11" t="inlineStr">
         <is>
-          <t>fg_type_id</t>
+          <t>caption</t>
         </is>
       </c>
       <c r="N123" s="11" t="n"/>
@@ -4962,15 +5070,16 @@
       <c r="P123" s="11" t="n"/>
     </row>
     <row r="124">
+      <c r="B124" s="1" t="n"/>
       <c r="C124" s="11" t="n"/>
       <c r="D124" s="11" t="inlineStr">
         <is>
-          <t>dtlFgCaptionField</t>
+          <t>dtlFgRecordsetField</t>
         </is>
       </c>
       <c r="E124" s="11" t="inlineStr">
         <is>
-          <t>Caption</t>
+          <t>Recordset</t>
         </is>
       </c>
       <c r="F124" s="11" t="n"/>
@@ -4980,13 +5089,18 @@
       <c r="J124" s="11" t="n"/>
       <c r="K124" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L124" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L124" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getScreenRecordsets
+values: {"value": "id", "display": "recordset_nm"}</t>
+        </is>
+      </c>
       <c r="M124" s="11" t="inlineStr">
         <is>
-          <t>caption</t>
+          <t>recordset_id</t>
         </is>
       </c>
       <c r="N124" s="11" t="n"/>
@@ -4998,15 +5112,16 @@
       <c r="P124" s="11" t="n"/>
     </row>
     <row r="125">
+      <c r="B125" s="1" t="n"/>
       <c r="C125" s="11" t="n"/>
       <c r="D125" s="11" t="inlineStr">
         <is>
-          <t>dtlFgRecordsetField</t>
+          <t>dtlFgDeletableField</t>
         </is>
       </c>
       <c r="E125" s="11" t="inlineStr">
         <is>
-          <t>Recordset</t>
+          <t>Deletable</t>
         </is>
       </c>
       <c r="F125" s="11" t="n"/>
@@ -5016,38 +5131,30 @@
       <c r="J125" s="11" t="n"/>
       <c r="K125" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L125" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getScreenRecordsets
-values: {"value": "id", "display": "recordset_nm"}</t>
-        </is>
-      </c>
+          <t>CheckBox</t>
+        </is>
+      </c>
+      <c r="L125" s="11" t="n"/>
       <c r="M125" s="11" t="inlineStr">
         <is>
-          <t>recordset_id</t>
+          <t>deletable</t>
         </is>
       </c>
       <c r="N125" s="11" t="n"/>
-      <c r="O125" s="11" t="inlineStr">
-        <is>
-          <t>width: 255px;</t>
-        </is>
-      </c>
+      <c r="O125" s="11" t="n"/>
       <c r="P125" s="11" t="n"/>
     </row>
     <row r="126">
+      <c r="B126" s="1" t="n"/>
       <c r="C126" s="11" t="n"/>
       <c r="D126" s="11" t="inlineStr">
         <is>
-          <t>dtlFgDeletableField</t>
+          <t>dtlFgEditableField</t>
         </is>
       </c>
       <c r="E126" s="11" t="inlineStr">
         <is>
-          <t>Deletable</t>
+          <t>Editable</t>
         </is>
       </c>
       <c r="F126" s="11" t="n"/>
@@ -5063,7 +5170,7 @@
       <c r="L126" s="11" t="n"/>
       <c r="M126" s="11" t="inlineStr">
         <is>
-          <t>deletable</t>
+          <t>editable</t>
         </is>
       </c>
       <c r="N126" s="11" t="n"/>
@@ -5071,15 +5178,16 @@
       <c r="P126" s="11" t="n"/>
     </row>
     <row r="127">
+      <c r="B127" s="1" t="n"/>
       <c r="C127" s="11" t="n"/>
       <c r="D127" s="11" t="inlineStr">
         <is>
-          <t>dtlFgEditableField</t>
+          <t>dtlFgInsertableField</t>
         </is>
       </c>
       <c r="E127" s="11" t="inlineStr">
         <is>
-          <t>Editable</t>
+          <t>Insertable</t>
         </is>
       </c>
       <c r="F127" s="11" t="n"/>
@@ -5095,7 +5203,7 @@
       <c r="L127" s="11" t="n"/>
       <c r="M127" s="11" t="inlineStr">
         <is>
-          <t>editable</t>
+          <t>insertable</t>
         </is>
       </c>
       <c r="N127" s="11" t="n"/>
@@ -5103,15 +5211,16 @@
       <c r="P127" s="11" t="n"/>
     </row>
     <row r="128">
+      <c r="B128" s="1" t="n"/>
       <c r="C128" s="11" t="n"/>
       <c r="D128" s="11" t="inlineStr">
         <is>
-          <t>dtlFgInsertableField</t>
+          <t>dtlFgHighlightRowField</t>
         </is>
       </c>
       <c r="E128" s="11" t="inlineStr">
         <is>
-          <t>Insertable</t>
+          <t>Highlight Row</t>
         </is>
       </c>
       <c r="F128" s="11" t="n"/>
@@ -5127,7 +5236,7 @@
       <c r="L128" s="11" t="n"/>
       <c r="M128" s="11" t="inlineStr">
         <is>
-          <t>insertable</t>
+          <t>highlight_row</t>
         </is>
       </c>
       <c r="N128" s="11" t="n"/>
@@ -5135,15 +5244,16 @@
       <c r="P128" s="11" t="n"/>
     </row>
     <row r="129">
+      <c r="B129" s="1" t="n"/>
       <c r="C129" s="11" t="n"/>
       <c r="D129" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHighlightRowField</t>
+          <t>dtlFgSelectionModeField</t>
         </is>
       </c>
       <c r="E129" s="11" t="inlineStr">
         <is>
-          <t>Highlight Row</t>
+          <t>Selection Mode</t>
         </is>
       </c>
       <c r="F129" s="11" t="n"/>
@@ -5153,29 +5263,38 @@
       <c r="J129" s="11" t="n"/>
       <c r="K129" s="11" t="inlineStr">
         <is>
-          <t>CheckBox</t>
-        </is>
-      </c>
-      <c r="L129" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L129" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getSelectionModes</t>
+        </is>
+      </c>
       <c r="M129" s="11" t="inlineStr">
         <is>
-          <t>highlight_row</t>
+          <t>selection_mode</t>
         </is>
       </c>
       <c r="N129" s="11" t="n"/>
-      <c r="O129" s="11" t="n"/>
+      <c r="O129" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P129" s="11" t="n"/>
     </row>
     <row r="130">
+      <c r="B130" s="1" t="n"/>
       <c r="C130" s="11" t="n"/>
       <c r="D130" s="11" t="inlineStr">
         <is>
-          <t>dtlFgSelectionModeField</t>
+          <t>dtlFgColsField</t>
         </is>
       </c>
       <c r="E130" s="11" t="inlineStr">
         <is>
-          <t>Selection Mode</t>
+          <t>Cols</t>
         </is>
       </c>
       <c r="F130" s="11" t="n"/>
@@ -5185,17 +5304,13 @@
       <c r="J130" s="11" t="n"/>
       <c r="K130" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L130" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getSelectionModes</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L130" s="11" t="n"/>
       <c r="M130" s="11" t="inlineStr">
         <is>
-          <t>selection_mode</t>
+          <t>cols</t>
         </is>
       </c>
       <c r="N130" s="11" t="n"/>
@@ -5207,15 +5322,16 @@
       <c r="P130" s="11" t="n"/>
     </row>
     <row r="131">
+      <c r="B131" s="1" t="n"/>
       <c r="C131" s="11" t="n"/>
       <c r="D131" s="11" t="inlineStr">
         <is>
-          <t>dtlFgColsField</t>
+          <t>dtlFgPageTypeField</t>
         </is>
       </c>
       <c r="E131" s="11" t="inlineStr">
         <is>
-          <t>Cols</t>
+          <t>Page Type</t>
         </is>
       </c>
       <c r="F131" s="11" t="n"/>
@@ -5225,13 +5341,17 @@
       <c r="J131" s="11" t="n"/>
       <c r="K131" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L131" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L131" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFgPageTypes</t>
+        </is>
+      </c>
       <c r="M131" s="11" t="inlineStr">
         <is>
-          <t>cols</t>
+          <t>data_page_type</t>
         </is>
       </c>
       <c r="N131" s="11" t="n"/>
@@ -5243,15 +5363,16 @@
       <c r="P131" s="11" t="n"/>
     </row>
     <row r="132">
+      <c r="B132" s="1" t="n"/>
       <c r="C132" s="11" t="n"/>
       <c r="D132" s="11" t="inlineStr">
         <is>
-          <t>dtlFgPageTypeField</t>
+          <t>dtlFgPageSizeField</t>
         </is>
       </c>
       <c r="E132" s="11" t="inlineStr">
         <is>
-          <t>Page Type</t>
+          <t>Page Size</t>
         </is>
       </c>
       <c r="F132" s="11" t="n"/>
@@ -5261,17 +5382,13 @@
       <c r="J132" s="11" t="n"/>
       <c r="K132" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L132" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getFgPageTypes</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L132" s="11" t="n"/>
       <c r="M132" s="11" t="inlineStr">
         <is>
-          <t>data_page_type</t>
+          <t>data_page_size</t>
         </is>
       </c>
       <c r="N132" s="11" t="n"/>
@@ -5283,15 +5400,16 @@
       <c r="P132" s="11" t="n"/>
     </row>
     <row r="133">
+      <c r="B133" s="1" t="n"/>
       <c r="C133" s="11" t="n"/>
       <c r="D133" s="11" t="inlineStr">
         <is>
-          <t>dtlFgPageSizeField</t>
+          <t>dtlFgOuterLayoutParamsField</t>
         </is>
       </c>
       <c r="E133" s="11" t="inlineStr">
         <is>
-          <t>Page Size</t>
+          <t>Outer Layout Parameters</t>
         </is>
       </c>
       <c r="F133" s="11" t="n"/>
@@ -5301,13 +5419,13 @@
       <c r="J133" s="11" t="n"/>
       <c r="K133" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="L133" s="11" t="n"/>
       <c r="M133" s="11" t="inlineStr">
         <is>
-          <t>data_page_size</t>
+          <t>outer_layout_params</t>
         </is>
       </c>
       <c r="N133" s="11" t="n"/>
@@ -5319,15 +5437,16 @@
       <c r="P133" s="11" t="n"/>
     </row>
     <row r="134">
+      <c r="B134" s="1" t="n"/>
       <c r="C134" s="11" t="n"/>
       <c r="D134" s="11" t="inlineStr">
         <is>
-          <t>dtlFgOuterLayoutParamsField</t>
+          <t>dtlFgInnerLayoutTpField</t>
         </is>
       </c>
       <c r="E134" s="11" t="inlineStr">
         <is>
-          <t>Outer Layout Parameters</t>
+          <t>Inner Layout Type</t>
         </is>
       </c>
       <c r="F134" s="11" t="n"/>
@@ -5337,13 +5456,17 @@
       <c r="J134" s="11" t="n"/>
       <c r="K134" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L134" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L134" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getScreenLayoutType</t>
+        </is>
+      </c>
       <c r="M134" s="11" t="inlineStr">
         <is>
-          <t>outer_layout_params</t>
+          <t>inner_layout_type</t>
         </is>
       </c>
       <c r="N134" s="11" t="n"/>
@@ -5355,15 +5478,16 @@
       <c r="P134" s="11" t="n"/>
     </row>
     <row r="135">
+      <c r="B135" s="1" t="n"/>
       <c r="C135" s="11" t="n"/>
       <c r="D135" s="11" t="inlineStr">
         <is>
-          <t>dtlFgInnerLayoutTpField</t>
+          <t>dtlFgInnerLayoutParamsField</t>
         </is>
       </c>
       <c r="E135" s="11" t="inlineStr">
         <is>
-          <t>Inner Layout Type</t>
+          <t>Inner Layout Parameters</t>
         </is>
       </c>
       <c r="F135" s="11" t="n"/>
@@ -5373,17 +5497,13 @@
       <c r="J135" s="11" t="n"/>
       <c r="K135" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L135" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getScreenLayoutType</t>
-        </is>
-      </c>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="L135" s="11" t="n"/>
       <c r="M135" s="11" t="inlineStr">
         <is>
-          <t>inner_layout_type</t>
+          <t>inner_layout_params</t>
         </is>
       </c>
       <c r="N135" s="11" t="n"/>
@@ -5395,15 +5515,16 @@
       <c r="P135" s="11" t="n"/>
     </row>
     <row r="136">
+      <c r="B136" s="1" t="n"/>
       <c r="C136" s="11" t="n"/>
       <c r="D136" s="11" t="inlineStr">
         <is>
-          <t>dtlFgInnerLayoutParamsField</t>
+          <t>dtlFgHtmlField</t>
         </is>
       </c>
       <c r="E136" s="11" t="inlineStr">
         <is>
-          <t>Inner Layout Parameters</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="F136" s="11" t="n"/>
@@ -5419,7 +5540,7 @@
       <c r="L136" s="11" t="n"/>
       <c r="M136" s="11" t="inlineStr">
         <is>
-          <t>inner_layout_params</t>
+          <t>html</t>
         </is>
       </c>
       <c r="N136" s="11" t="n"/>
@@ -5431,15 +5552,16 @@
       <c r="P136" s="11" t="n"/>
     </row>
     <row r="137">
+      <c r="B137" s="1" t="n"/>
       <c r="C137" s="11" t="n"/>
       <c r="D137" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHtmlField</t>
+          <t>dtlFgAdditionalPropsField</t>
         </is>
       </c>
       <c r="E137" s="11" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Additional Properties</t>
         </is>
       </c>
       <c r="F137" s="11" t="n"/>
@@ -5449,16 +5571,26 @@
       <c r="J137" s="11" t="n"/>
       <c r="K137" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L137" s="11" t="n"/>
+          <t>AdvancedSelection</t>
+        </is>
+      </c>
+      <c r="L137" s="11" t="inlineStr">
+        <is>
+          <t>icon: images/goto_sbutton.gif
+data: []
+dialog: name:additionalPropsDialog;beforeDisplayEvent:postPreAdditionalProps</t>
+        </is>
+      </c>
       <c r="M137" s="11" t="inlineStr">
         <is>
-          <t>html</t>
-        </is>
-      </c>
-      <c r="N137" s="11" t="n"/>
+          <t>additional_props</t>
+        </is>
+      </c>
+      <c r="N137" s="11" t="inlineStr">
+        <is>
+          <t>uploadAdditionalProps</t>
+        </is>
+      </c>
       <c r="O137" s="11" t="inlineStr">
         <is>
           <t>width: 255px;</t>
@@ -5467,15 +5599,16 @@
       <c r="P137" s="11" t="n"/>
     </row>
     <row r="138">
+      <c r="B138" s="1" t="n"/>
       <c r="C138" s="11" t="n"/>
       <c r="D138" s="11" t="inlineStr">
         <is>
-          <t>dtlFgAdditionalPropsField</t>
+          <t>dtlFgRemarkField</t>
         </is>
       </c>
       <c r="E138" s="11" t="inlineStr">
         <is>
-          <t>Additional Properties</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F138" s="11" t="n"/>
@@ -5485,26 +5618,16 @@
       <c r="J138" s="11" t="n"/>
       <c r="K138" s="11" t="inlineStr">
         <is>
-          <t>AdvancedSelection</t>
-        </is>
-      </c>
-      <c r="L138" s="11" t="inlineStr">
-        <is>
-          <t>icon: images/goto_sbutton.gif
-data: []
-dialog: name:additionalPropsDialog;beforeDisplayEvent:postPreAdditionalProps</t>
-        </is>
-      </c>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="L138" s="11" t="n"/>
       <c r="M138" s="11" t="inlineStr">
         <is>
-          <t>additional_props</t>
-        </is>
-      </c>
-      <c r="N138" s="11" t="inlineStr">
-        <is>
-          <t>uploadAdditionalProps</t>
-        </is>
-      </c>
+          <t>rmk</t>
+        </is>
+      </c>
+      <c r="N138" s="11" t="n"/>
       <c r="O138" s="11" t="inlineStr">
         <is>
           <t>width: 255px;</t>
@@ -5513,15 +5636,20 @@
       <c r="P138" s="11" t="n"/>
     </row>
     <row r="139">
-      <c r="C139" s="11" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="11" t="inlineStr">
+        <is>
+          <t>fieldListFg</t>
+        </is>
+      </c>
       <c r="D139" s="11" t="inlineStr">
         <is>
-          <t>dtlFgRemarkField</t>
+          <t>seqField</t>
         </is>
       </c>
       <c r="E139" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Seq</t>
         </is>
       </c>
       <c r="F139" s="11" t="n"/>
@@ -5531,37 +5659,30 @@
       <c r="J139" s="11" t="n"/>
       <c r="K139" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L139" s="11" t="n"/>
       <c r="M139" s="11" t="inlineStr">
         <is>
-          <t>rmk</t>
+          <t>seq</t>
         </is>
       </c>
       <c r="N139" s="11" t="n"/>
-      <c r="O139" s="11" t="inlineStr">
-        <is>
-          <t>width: 255px;</t>
-        </is>
-      </c>
+      <c r="O139" s="11" t="n"/>
       <c r="P139" s="11" t="n"/>
     </row>
     <row r="140">
-      <c r="C140" s="11" t="inlineStr">
-        <is>
-          <t>fieldListFg</t>
-        </is>
-      </c>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="11" t="n"/>
       <c r="D140" s="11" t="inlineStr">
         <is>
-          <t>seqField</t>
+          <t>fNmField</t>
         </is>
       </c>
       <c r="E140" s="11" t="inlineStr">
         <is>
-          <t>Seq</t>
+          <t>Field Name</t>
         </is>
       </c>
       <c r="F140" s="11" t="n"/>
@@ -5577,7 +5698,7 @@
       <c r="L140" s="11" t="n"/>
       <c r="M140" s="11" t="inlineStr">
         <is>
-          <t>seq</t>
+          <t>field_nm</t>
         </is>
       </c>
       <c r="N140" s="11" t="n"/>
@@ -5585,15 +5706,16 @@
       <c r="P140" s="11" t="n"/>
     </row>
     <row r="141">
+      <c r="B141" s="1" t="n"/>
       <c r="C141" s="11" t="n"/>
       <c r="D141" s="11" t="inlineStr">
         <is>
-          <t>fNmField</t>
+          <t>fCaptionField</t>
         </is>
       </c>
       <c r="E141" s="11" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Caption</t>
         </is>
       </c>
       <c r="F141" s="11" t="n"/>
@@ -5609,7 +5731,7 @@
       <c r="L141" s="11" t="n"/>
       <c r="M141" s="11" t="inlineStr">
         <is>
-          <t>field_nm</t>
+          <t>caption</t>
         </is>
       </c>
       <c r="N141" s="11" t="n"/>
@@ -5617,15 +5739,16 @@
       <c r="P141" s="11" t="n"/>
     </row>
     <row r="142">
+      <c r="B142" s="1" t="n"/>
       <c r="C142" s="11" t="n"/>
       <c r="D142" s="11" t="inlineStr">
         <is>
-          <t>fCaptionField</t>
+          <t>fTooltipField</t>
         </is>
       </c>
       <c r="E142" s="11" t="inlineStr">
         <is>
-          <t>Caption</t>
+          <t>Tooltip</t>
         </is>
       </c>
       <c r="F142" s="11" t="n"/>
@@ -5641,7 +5764,7 @@
       <c r="L142" s="11" t="n"/>
       <c r="M142" s="11" t="inlineStr">
         <is>
-          <t>caption</t>
+          <t>tooltip</t>
         </is>
       </c>
       <c r="N142" s="11" t="n"/>
@@ -5649,15 +5772,16 @@
       <c r="P142" s="11" t="n"/>
     </row>
     <row r="143">
+      <c r="B143" s="1" t="n"/>
       <c r="C143" s="11" t="n"/>
       <c r="D143" s="11" t="inlineStr">
         <is>
-          <t>fTooltipField</t>
+          <t>fVisibleField</t>
         </is>
       </c>
       <c r="E143" s="11" t="inlineStr">
         <is>
-          <t>Tooltip</t>
+          <t>Visible</t>
         </is>
       </c>
       <c r="F143" s="11" t="n"/>
@@ -5667,13 +5791,13 @@
       <c r="J143" s="11" t="n"/>
       <c r="K143" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>CheckBox</t>
         </is>
       </c>
       <c r="L143" s="11" t="n"/>
       <c r="M143" s="11" t="inlineStr">
         <is>
-          <t>tooltip</t>
+          <t>visible</t>
         </is>
       </c>
       <c r="N143" s="11" t="n"/>
@@ -5681,15 +5805,16 @@
       <c r="P143" s="11" t="n"/>
     </row>
     <row r="144">
+      <c r="B144" s="1" t="n"/>
       <c r="C144" s="11" t="n"/>
       <c r="D144" s="11" t="inlineStr">
         <is>
-          <t>fVisibleField</t>
+          <t>fEditableField</t>
         </is>
       </c>
       <c r="E144" s="11" t="inlineStr">
         <is>
-          <t>Visible</t>
+          <t>Editable</t>
         </is>
       </c>
       <c r="F144" s="11" t="n"/>
@@ -5705,7 +5830,7 @@
       <c r="L144" s="11" t="n"/>
       <c r="M144" s="11" t="inlineStr">
         <is>
-          <t>visible</t>
+          <t>editable</t>
         </is>
       </c>
       <c r="N144" s="11" t="n"/>
@@ -5713,15 +5838,16 @@
       <c r="P144" s="11" t="n"/>
     </row>
     <row r="145">
+      <c r="B145" s="1" t="n"/>
       <c r="C145" s="11" t="n"/>
       <c r="D145" s="11" t="inlineStr">
         <is>
-          <t>fEditableField</t>
+          <t>fUniqueField</t>
         </is>
       </c>
       <c r="E145" s="11" t="inlineStr">
         <is>
-          <t>Editable</t>
+          <t>Unique</t>
         </is>
       </c>
       <c r="F145" s="11" t="n"/>
@@ -5731,13 +5857,18 @@
       <c r="J145" s="11" t="n"/>
       <c r="K145" s="11" t="inlineStr">
         <is>
-          <t>CheckBox</t>
-        </is>
-      </c>
-      <c r="L145" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L145" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getUnique
+values: {"value": "unique", "display": "unique"}</t>
+        </is>
+      </c>
       <c r="M145" s="11" t="inlineStr">
         <is>
-          <t>editable</t>
+          <t>db_unique</t>
         </is>
       </c>
       <c r="N145" s="11" t="n"/>
@@ -5745,15 +5876,16 @@
       <c r="P145" s="11" t="n"/>
     </row>
     <row r="146">
+      <c r="B146" s="1" t="n"/>
       <c r="C146" s="11" t="n"/>
       <c r="D146" s="11" t="inlineStr">
         <is>
-          <t>fUniqueField</t>
+          <t>fRequiredField</t>
         </is>
       </c>
       <c r="E146" s="11" t="inlineStr">
         <is>
-          <t>Unique</t>
+          <t>Required</t>
         </is>
       </c>
       <c r="F146" s="11" t="n"/>
@@ -5768,13 +5900,13 @@
       </c>
       <c r="L146" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getUnique
-values: {"value": "unique", "display": "unique"}</t>
+          <t>dataUrl: getRequired
+values: {"value": "required", "display": "required"}</t>
         </is>
       </c>
       <c r="M146" s="11" t="inlineStr">
         <is>
-          <t>db_unique</t>
+          <t>db_required</t>
         </is>
       </c>
       <c r="N146" s="11" t="n"/>
@@ -5782,15 +5914,16 @@
       <c r="P146" s="11" t="n"/>
     </row>
     <row r="147">
+      <c r="B147" s="1" t="n"/>
       <c r="C147" s="11" t="n"/>
       <c r="D147" s="11" t="inlineStr">
         <is>
-          <t>fRequiredField</t>
+          <t>fWidgetField</t>
         </is>
       </c>
       <c r="E147" s="11" t="inlineStr">
         <is>
-          <t>Required</t>
+          <t>Widget</t>
         </is>
       </c>
       <c r="F147" s="11" t="n"/>
@@ -5805,13 +5938,13 @@
       </c>
       <c r="L147" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getRequired
-values: {"value": "required", "display": "required"}</t>
+          <t>dataUrl: getWidgets
+values: {"value": "widget_id", "display": "widget_nm"}</t>
         </is>
       </c>
       <c r="M147" s="11" t="inlineStr">
         <is>
-          <t>db_required</t>
+          <t>widget_id</t>
         </is>
       </c>
       <c r="N147" s="11" t="n"/>
@@ -5819,15 +5952,16 @@
       <c r="P147" s="11" t="n"/>
     </row>
     <row r="148">
+      <c r="B148" s="1" t="n"/>
       <c r="C148" s="11" t="n"/>
       <c r="D148" s="11" t="inlineStr">
         <is>
-          <t>fWidgetField</t>
+          <t>fwidgetParametersField</t>
         </is>
       </c>
       <c r="E148" s="11" t="inlineStr">
         <is>
-          <t>Widget</t>
+          <t>Widget Parameters</t>
         </is>
       </c>
       <c r="F148" s="11" t="n"/>
@@ -5837,34 +5971,40 @@
       <c r="J148" s="11" t="n"/>
       <c r="K148" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
+          <t>AdvancedSelection</t>
         </is>
       </c>
       <c r="L148" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getWidgets
-values: {"value": "widget_id", "display": "widget_nm"}</t>
+          <t>icon: images/goto_sbutton.gif
+data: []
+dialog: name:widgetPramsDialog;title:Widget Parameters;beforeDisplayEvent:postRow;continueName:Confirm;width:600px</t>
         </is>
       </c>
       <c r="M148" s="11" t="inlineStr">
         <is>
-          <t>widget_id</t>
-        </is>
-      </c>
-      <c r="N148" s="11" t="n"/>
+          <t>widget_parameters</t>
+        </is>
+      </c>
+      <c r="N148" s="11" t="inlineStr">
+        <is>
+          <t>uploadWidgetPrams</t>
+        </is>
+      </c>
       <c r="O148" s="11" t="n"/>
       <c r="P148" s="11" t="n"/>
     </row>
     <row r="149">
+      <c r="B149" s="1" t="n"/>
       <c r="C149" s="11" t="n"/>
       <c r="D149" s="11" t="inlineStr">
         <is>
-          <t>fwidgetParametersField</t>
+          <t>fFieldField</t>
         </is>
       </c>
       <c r="E149" s="11" t="inlineStr">
         <is>
-          <t>Widget Parameters</t>
+          <t>Field</t>
         </is>
       </c>
       <c r="F149" s="11" t="n"/>
@@ -5874,39 +6014,30 @@
       <c r="J149" s="11" t="n"/>
       <c r="K149" s="11" t="inlineStr">
         <is>
-          <t>AdvancedSelection</t>
-        </is>
-      </c>
-      <c r="L149" s="11" t="inlineStr">
-        <is>
-          <t>icon: images/goto_sbutton.gif
-data: []
-dialog: name:widgetPramsDialog;title:Widget Parameters;beforeDisplayEvent:postRow;continueName:Confirm;width:600px</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L149" s="11" t="n"/>
       <c r="M149" s="11" t="inlineStr">
         <is>
-          <t>widget_parameters</t>
-        </is>
-      </c>
-      <c r="N149" s="11" t="inlineStr">
-        <is>
-          <t>uploadWidgetPrams</t>
-        </is>
-      </c>
+          <t>db_field</t>
+        </is>
+      </c>
+      <c r="N149" s="11" t="n"/>
       <c r="O149" s="11" t="n"/>
       <c r="P149" s="11" t="n"/>
     </row>
     <row r="150">
+      <c r="B150" s="1" t="n"/>
       <c r="C150" s="11" t="n"/>
       <c r="D150" s="11" t="inlineStr">
         <is>
-          <t>fFieldField</t>
+          <t>fEventHandlerField</t>
         </is>
       </c>
       <c r="E150" s="11" t="inlineStr">
         <is>
-          <t>Field</t>
+          <t>Event Handler</t>
         </is>
       </c>
       <c r="F150" s="11" t="n"/>
@@ -5922,7 +6053,7 @@
       <c r="L150" s="11" t="n"/>
       <c r="M150" s="11" t="inlineStr">
         <is>
-          <t>db_field</t>
+          <t>event_handler</t>
         </is>
       </c>
       <c r="N150" s="11" t="n"/>
@@ -5930,15 +6061,16 @@
       <c r="P150" s="11" t="n"/>
     </row>
     <row r="151">
+      <c r="B151" s="1" t="n"/>
       <c r="C151" s="11" t="n"/>
       <c r="D151" s="11" t="inlineStr">
         <is>
-          <t>fEventHandlerField</t>
+          <t>fStylesField</t>
         </is>
       </c>
       <c r="E151" s="11" t="inlineStr">
         <is>
-          <t>Event Handler</t>
+          <t>Styles</t>
         </is>
       </c>
       <c r="F151" s="11" t="n"/>
@@ -5954,7 +6086,7 @@
       <c r="L151" s="11" t="n"/>
       <c r="M151" s="11" t="inlineStr">
         <is>
-          <t>event_handler</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="N151" s="11" t="n"/>
@@ -5962,15 +6094,16 @@
       <c r="P151" s="11" t="n"/>
     </row>
     <row r="152">
+      <c r="B152" s="1" t="n"/>
       <c r="C152" s="11" t="n"/>
       <c r="D152" s="11" t="inlineStr">
         <is>
-          <t>fStylesField</t>
+          <t>fRemarkField</t>
         </is>
       </c>
       <c r="E152" s="11" t="inlineStr">
         <is>
-          <t>Styles</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F152" s="11" t="n"/>
@@ -5986,7 +6119,7 @@
       <c r="L152" s="11" t="n"/>
       <c r="M152" s="11" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N152" s="11" t="n"/>
@@ -5994,15 +6127,20 @@
       <c r="P152" s="11" t="n"/>
     </row>
     <row r="153">
-      <c r="C153" s="11" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="11" t="inlineStr">
+        <is>
+          <t>fgToolbar</t>
+        </is>
+      </c>
       <c r="D153" s="11" t="inlineStr">
         <is>
-          <t>fRemarkField</t>
+          <t>bttHideFgDtl</t>
         </is>
       </c>
       <c r="E153" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Hide Field Group Detail</t>
         </is>
       </c>
       <c r="F153" s="11" t="n"/>
@@ -6012,33 +6150,34 @@
       <c r="J153" s="11" t="n"/>
       <c r="K153" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L153" s="11" t="n"/>
-      <c r="M153" s="11" t="inlineStr">
-        <is>
-          <t>rmk</t>
-        </is>
-      </c>
-      <c r="N153" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L153" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/back_button.gif</t>
+        </is>
+      </c>
+      <c r="M153" s="11" t="n"/>
+      <c r="N153" s="11" t="inlineStr">
+        <is>
+          <t>hideFgDetail</t>
+        </is>
+      </c>
       <c r="O153" s="11" t="n"/>
       <c r="P153" s="11" t="n"/>
     </row>
     <row r="154">
-      <c r="C154" s="11" t="inlineStr">
-        <is>
-          <t>fgToolbar</t>
-        </is>
-      </c>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="11" t="n"/>
       <c r="D154" s="11" t="inlineStr">
         <is>
-          <t>bttHideFgDtl</t>
+          <t>bttNewFg</t>
         </is>
       </c>
       <c r="E154" s="11" t="inlineStr">
         <is>
-          <t>Hide Field Group Detail</t>
+          <t>New Field Group</t>
         </is>
       </c>
       <c r="F154" s="11" t="n"/>
@@ -6053,28 +6192,29 @@
       </c>
       <c r="L154" s="11" t="inlineStr">
         <is>
-          <t>icon:images/back_button.gif</t>
+          <t>icon:images/new_button.gif</t>
         </is>
       </c>
       <c r="M154" s="11" t="n"/>
       <c r="N154" s="11" t="inlineStr">
         <is>
-          <t>hideFgDetail</t>
+          <t>newFieldGroup</t>
         </is>
       </c>
       <c r="O154" s="11" t="n"/>
       <c r="P154" s="11" t="n"/>
     </row>
     <row r="155">
+      <c r="B155" s="1" t="n"/>
       <c r="C155" s="11" t="n"/>
       <c r="D155" s="11" t="inlineStr">
         <is>
-          <t>bttNewFg</t>
+          <t>bttSaveFg</t>
         </is>
       </c>
       <c r="E155" s="11" t="inlineStr">
         <is>
-          <t>New Field Group</t>
+          <t>Save Field Group</t>
         </is>
       </c>
       <c r="F155" s="11" t="n"/>
@@ -6089,28 +6229,30 @@
       </c>
       <c r="L155" s="11" t="inlineStr">
         <is>
-          <t>icon:images/new_button.gif</t>
+          <t>icon:images/save_button.gif
+dialog: beforeDisplayEvent: checkFieldIsRelated(fieldListFg)</t>
         </is>
       </c>
       <c r="M155" s="11" t="n"/>
       <c r="N155" s="11" t="inlineStr">
         <is>
-          <t>newFieldGroup</t>
+          <t>saveFieldGroup(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg)</t>
         </is>
       </c>
       <c r="O155" s="11" t="n"/>
       <c r="P155" s="11" t="n"/>
     </row>
     <row r="156">
+      <c r="B156" s="1" t="n"/>
       <c r="C156" s="11" t="n"/>
       <c r="D156" s="11" t="inlineStr">
         <is>
-          <t>bttSaveFg</t>
+          <t>bttDeleteFg</t>
         </is>
       </c>
       <c r="E156" s="11" t="inlineStr">
         <is>
-          <t>Save Field Group</t>
+          <t>Delete Field Group</t>
         </is>
       </c>
       <c r="F156" s="11" t="n"/>
@@ -6125,29 +6267,34 @@
       </c>
       <c r="L156" s="11" t="inlineStr">
         <is>
-          <t>icon:images/save_button.gif
-dialog: beforeDisplayEvent: checkFieldIsRelated(fieldListFg)</t>
+          <t>icon:images/delete_button.gif
+dialog: beforeDisplayEvent: checkFgIsRelated</t>
         </is>
       </c>
       <c r="M156" s="11" t="n"/>
       <c r="N156" s="11" t="inlineStr">
         <is>
-          <t>saveFieldGroup(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg)</t>
+          <t>deleteFieldGroup</t>
         </is>
       </c>
       <c r="O156" s="11" t="n"/>
       <c r="P156" s="11" t="n"/>
     </row>
     <row r="157">
-      <c r="C157" s="11" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="11" t="inlineStr">
+        <is>
+          <t>subScreenFg</t>
+        </is>
+      </c>
       <c r="D157" s="11" t="inlineStr">
         <is>
-          <t>bttDeleteFg</t>
+          <t>screenNmField</t>
         </is>
       </c>
       <c r="E157" s="11" t="inlineStr">
         <is>
-          <t>Delete Field Group</t>
+          <t>Sub Screen Name</t>
         </is>
       </c>
       <c r="F157" s="11" t="n"/>
@@ -6157,41 +6304,37 @@
       <c r="J157" s="11" t="n"/>
       <c r="K157" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L157" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/delete_button.gif
-dialog: beforeDisplayEvent: checkFgIsRelated</t>
-        </is>
-      </c>
-      <c r="M157" s="11" t="n"/>
-      <c r="N157" s="11" t="inlineStr">
-        <is>
-          <t>deleteFieldGroup</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L157" s="11" t="n"/>
+      <c r="M157" s="11" t="inlineStr">
+        <is>
+          <t>sub_screen_nm</t>
+        </is>
+      </c>
+      <c r="N157" s="11" t="n"/>
       <c r="O157" s="11" t="n"/>
       <c r="P157" s="11" t="n"/>
     </row>
     <row r="158">
-      <c r="C158" s="11" t="inlineStr">
-        <is>
-          <t>subScreenFg</t>
-        </is>
-      </c>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="11" t="n"/>
       <c r="D158" s="11" t="inlineStr">
         <is>
-          <t>screenNmField</t>
+          <t>fieldGroupsField</t>
         </is>
       </c>
       <c r="E158" s="11" t="inlineStr">
         <is>
-          <t>Sub Screen Name</t>
-        </is>
-      </c>
-      <c r="F158" s="11" t="n"/>
+          <t>Field Groups</t>
+        </is>
+      </c>
+      <c r="F158" s="11" t="inlineStr">
+        <is>
+          <t>Setting it to empty will display all field groups in sub screen</t>
+        </is>
+      </c>
       <c r="G158" s="11" t="n"/>
       <c r="H158" s="11" t="n"/>
       <c r="I158" s="11" t="n"/>
@@ -6204,7 +6347,7 @@
       <c r="L158" s="11" t="n"/>
       <c r="M158" s="11" t="inlineStr">
         <is>
-          <t>sub_screen_nm</t>
+          <t>field_group_nms</t>
         </is>
       </c>
       <c r="N158" s="11" t="n"/>
@@ -6212,22 +6355,19 @@
       <c r="P158" s="11" t="n"/>
     </row>
     <row r="159">
+      <c r="B159" s="1" t="n"/>
       <c r="C159" s="11" t="n"/>
       <c r="D159" s="11" t="inlineStr">
         <is>
-          <t>fieldGroupsField</t>
+          <t>rmkField</t>
         </is>
       </c>
       <c r="E159" s="11" t="inlineStr">
         <is>
-          <t>Field Groups</t>
-        </is>
-      </c>
-      <c r="F159" s="11" t="inlineStr">
-        <is>
-          <t>Setting it to empty will display all field groups in sub screen</t>
-        </is>
-      </c>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="F159" s="11" t="n"/>
       <c r="G159" s="11" t="n"/>
       <c r="H159" s="11" t="n"/>
       <c r="I159" s="11" t="n"/>
@@ -6240,7 +6380,7 @@
       <c r="L159" s="11" t="n"/>
       <c r="M159" s="11" t="inlineStr">
         <is>
-          <t>field_group_nms</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N159" s="11" t="n"/>
@@ -6248,15 +6388,20 @@
       <c r="P159" s="11" t="n"/>
     </row>
     <row r="160">
-      <c r="C160" s="11" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="11" t="inlineStr">
+        <is>
+          <t>subScreenToolbar</t>
+        </is>
+      </c>
       <c r="D160" s="11" t="inlineStr">
         <is>
-          <t>rmkField</t>
+          <t>bttSaveFg</t>
         </is>
       </c>
       <c r="E160" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Save Sub Screen</t>
         </is>
       </c>
       <c r="F160" s="11" t="n"/>
@@ -6266,33 +6411,38 @@
       <c r="J160" s="11" t="n"/>
       <c r="K160" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L160" s="11" t="n"/>
-      <c r="M160" s="11" t="inlineStr">
-        <is>
-          <t>rmk</t>
-        </is>
-      </c>
-      <c r="N160" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L160" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/save_button.gif</t>
+        </is>
+      </c>
+      <c r="M160" s="11" t="n"/>
+      <c r="N160" s="11" t="inlineStr">
+        <is>
+          <t>saveSubScreen(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg)</t>
+        </is>
+      </c>
       <c r="O160" s="11" t="n"/>
       <c r="P160" s="11" t="n"/>
     </row>
     <row r="161">
+      <c r="B161" s="1" t="n"/>
       <c r="C161" s="11" t="inlineStr">
         <is>
-          <t>subScreenToolbar</t>
+          <t>fgLinkListFg</t>
         </is>
       </c>
       <c r="D161" s="11" t="inlineStr">
         <is>
-          <t>bttSaveFg</t>
+          <t>fgLinkFgNmField</t>
         </is>
       </c>
       <c r="E161" s="11" t="inlineStr">
         <is>
-          <t>Save Sub Screen</t>
+          <t>Field Group Name</t>
         </is>
       </c>
       <c r="F161" s="11" t="n"/>
@@ -6302,37 +6452,30 @@
       <c r="J161" s="11" t="n"/>
       <c r="K161" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L161" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/save_button.gif</t>
-        </is>
-      </c>
-      <c r="M161" s="11" t="n"/>
-      <c r="N161" s="11" t="inlineStr">
-        <is>
-          <t>saveSubScreen(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg)</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L161" s="11" t="n"/>
+      <c r="M161" s="11" t="inlineStr">
+        <is>
+          <t>field_group_nm</t>
+        </is>
+      </c>
+      <c r="N161" s="11" t="n"/>
       <c r="O161" s="11" t="n"/>
       <c r="P161" s="11" t="n"/>
     </row>
     <row r="162">
-      <c r="C162" s="11" t="inlineStr">
-        <is>
-          <t>fgLinkListFg</t>
-        </is>
-      </c>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="11" t="n"/>
       <c r="D162" s="11" t="inlineStr">
         <is>
-          <t>fgLinkFgNmField</t>
+          <t>fgLinkLocalKeyField</t>
         </is>
       </c>
       <c r="E162" s="11" t="inlineStr">
         <is>
-          <t>Field Group Name</t>
+          <t>Local Key</t>
         </is>
       </c>
       <c r="F162" s="11" t="n"/>
@@ -6348,7 +6491,7 @@
       <c r="L162" s="11" t="n"/>
       <c r="M162" s="11" t="inlineStr">
         <is>
-          <t>field_group_nm</t>
+          <t>local_key</t>
         </is>
       </c>
       <c r="N162" s="11" t="n"/>
@@ -6356,15 +6499,16 @@
       <c r="P162" s="11" t="n"/>
     </row>
     <row r="163">
+      <c r="B163" s="1" t="n"/>
       <c r="C163" s="11" t="n"/>
       <c r="D163" s="11" t="inlineStr">
         <is>
-          <t>fgLinkLocalKeyField</t>
+          <t>fgLinkParentFgNmField</t>
         </is>
       </c>
       <c r="E163" s="11" t="inlineStr">
         <is>
-          <t>Local Key</t>
+          <t>Parent Field Group Name</t>
         </is>
       </c>
       <c r="F163" s="11" t="n"/>
@@ -6380,7 +6524,7 @@
       <c r="L163" s="11" t="n"/>
       <c r="M163" s="11" t="inlineStr">
         <is>
-          <t>local_key</t>
+          <t>parent_field_group_nm</t>
         </is>
       </c>
       <c r="N163" s="11" t="n"/>
@@ -6388,15 +6532,16 @@
       <c r="P163" s="11" t="n"/>
     </row>
     <row r="164">
+      <c r="B164" s="1" t="n"/>
       <c r="C164" s="11" t="n"/>
       <c r="D164" s="11" t="inlineStr">
         <is>
-          <t>fgLinkParentFgNmField</t>
+          <t>fgLinkParentKeyField</t>
         </is>
       </c>
       <c r="E164" s="11" t="inlineStr">
         <is>
-          <t>Parent Field Group Name</t>
+          <t>Parent Key</t>
         </is>
       </c>
       <c r="F164" s="11" t="n"/>
@@ -6412,7 +6557,7 @@
       <c r="L164" s="11" t="n"/>
       <c r="M164" s="11" t="inlineStr">
         <is>
-          <t>parent_field_group_nm</t>
+          <t>parent_key</t>
         </is>
       </c>
       <c r="N164" s="11" t="n"/>
@@ -6420,15 +6565,16 @@
       <c r="P164" s="11" t="n"/>
     </row>
     <row r="165">
+      <c r="B165" s="1" t="n"/>
       <c r="C165" s="11" t="n"/>
       <c r="D165" s="11" t="inlineStr">
         <is>
-          <t>fgLinkParentKeyField</t>
+          <t>fgLinkRmkField</t>
         </is>
       </c>
       <c r="E165" s="11" t="inlineStr">
         <is>
-          <t>Parent Key</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F165" s="11" t="n"/>
@@ -6444,7 +6590,7 @@
       <c r="L165" s="11" t="n"/>
       <c r="M165" s="11" t="inlineStr">
         <is>
-          <t>parent_key</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N165" s="11" t="n"/>
@@ -6452,15 +6598,20 @@
       <c r="P165" s="11" t="n"/>
     </row>
     <row r="166">
-      <c r="C166" s="11" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="11" t="inlineStr">
+        <is>
+          <t>fgLinkDtlFg</t>
+        </is>
+      </c>
       <c r="D166" s="11" t="inlineStr">
         <is>
-          <t>fgLinkRmkField</t>
+          <t>dtlFgLinkFgNmField</t>
         </is>
       </c>
       <c r="E166" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Field Group Name</t>
         </is>
       </c>
       <c r="F166" s="11" t="n"/>
@@ -6470,13 +6621,19 @@
       <c r="J166" s="11" t="n"/>
       <c r="K166" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="L166" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L166" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFieldGroups
+values: {"value": "field_group_id", "display": "fg_nm"}
+onChange: changeDbKeyAndPFgs(fgLinkDtlFg)</t>
+        </is>
+      </c>
       <c r="M166" s="11" t="inlineStr">
         <is>
-          <t>rmk</t>
+          <t>field_group_id</t>
         </is>
       </c>
       <c r="N166" s="11" t="n"/>
@@ -6484,13 +6641,18 @@
       <c r="P166" s="11" t="n"/>
     </row>
     <row r="167">
+      <c r="B167" s="1" t="n"/>
       <c r="C167" s="11" t="n"/>
       <c r="D167" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
-        </is>
-      </c>
-      <c r="E167" s="11" t="n"/>
+          <t>dtlFgLinkLocalKeyField</t>
+        </is>
+      </c>
+      <c r="E167" s="11" t="inlineStr">
+        <is>
+          <t>Local Key</t>
+        </is>
+      </c>
       <c r="F167" s="11" t="n"/>
       <c r="G167" s="11" t="n"/>
       <c r="H167" s="11" t="n"/>
@@ -6498,33 +6660,35 @@
       <c r="J167" s="11" t="n"/>
       <c r="K167" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
-        </is>
-      </c>
-      <c r="L167" s="11" t="n"/>
-      <c r="M167" s="11" t="n"/>
-      <c r="N167" s="11" t="inlineStr">
-        <is>
-          <t>openFgLink(@id)</t>
-        </is>
-      </c>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L167" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFgFieldDbKeys
+values: {"value": "local_key", "display": "local_key"}</t>
+        </is>
+      </c>
+      <c r="M167" s="11" t="inlineStr">
+        <is>
+          <t>local_key</t>
+        </is>
+      </c>
+      <c r="N167" s="11" t="n"/>
       <c r="O167" s="11" t="n"/>
       <c r="P167" s="11" t="n"/>
     </row>
     <row r="168">
-      <c r="C168" s="11" t="inlineStr">
-        <is>
-          <t>fgLinkDtlFg</t>
-        </is>
-      </c>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="11" t="n"/>
       <c r="D168" s="11" t="inlineStr">
         <is>
-          <t>dtlFgLinkFgNmField</t>
+          <t>dtlFgLinkParentFgNmField</t>
         </is>
       </c>
       <c r="E168" s="11" t="inlineStr">
         <is>
-          <t>Field Group Name</t>
+          <t>Parent Field Group Name</t>
         </is>
       </c>
       <c r="F168" s="11" t="n"/>
@@ -6539,14 +6703,14 @@
       </c>
       <c r="L168" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getFieldGroups
-values: {"value": "field_group_id", "display": "fg_nm"}
-onChange: changeDbKeyAndPFgs(fgLinkDtlFg)</t>
+          <t>dataUrl: getParentFieldGroups
+values: {"value": "parent_field_group_id", "display": "fg_nm"}
+onChange: changeDbKeys(fgLinkDtlFg)</t>
         </is>
       </c>
       <c r="M168" s="11" t="inlineStr">
         <is>
-          <t>field_group_id</t>
+          <t>parent_field_group_id</t>
         </is>
       </c>
       <c r="N168" s="11" t="n"/>
@@ -6554,15 +6718,16 @@
       <c r="P168" s="11" t="n"/>
     </row>
     <row r="169">
+      <c r="B169" s="1" t="n"/>
       <c r="C169" s="11" t="n"/>
       <c r="D169" s="11" t="inlineStr">
         <is>
-          <t>dtlFgLinkLocalKeyField</t>
+          <t>dtlFgLinkParentKeyField</t>
         </is>
       </c>
       <c r="E169" s="11" t="inlineStr">
         <is>
-          <t>Local Key</t>
+          <t>Parent Key</t>
         </is>
       </c>
       <c r="F169" s="11" t="n"/>
@@ -6577,13 +6742,13 @@
       </c>
       <c r="L169" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getFgFieldDbKeys
-values: {"value": "local_key", "display": "local_key"}</t>
+          <t>dataUrl: getParentFgFieldDbKeys
+values: {"value": "parent_key", "display": "parent_key"}</t>
         </is>
       </c>
       <c r="M169" s="11" t="inlineStr">
         <is>
-          <t>local_key</t>
+          <t>parent_key</t>
         </is>
       </c>
       <c r="N169" s="11" t="n"/>
@@ -6591,15 +6756,16 @@
       <c r="P169" s="11" t="n"/>
     </row>
     <row r="170">
+      <c r="B170" s="1" t="n"/>
       <c r="C170" s="11" t="n"/>
       <c r="D170" s="11" t="inlineStr">
         <is>
-          <t>dtlFgLinkParentFgNmField</t>
+          <t>dtlFgLinkRmkField</t>
         </is>
       </c>
       <c r="E170" s="11" t="inlineStr">
         <is>
-          <t>Parent Field Group Name</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F170" s="11" t="n"/>
@@ -6609,19 +6775,13 @@
       <c r="J170" s="11" t="n"/>
       <c r="K170" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L170" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getParentFieldGroups
-values: {"value": "parent_field_group_id", "display": "fg_nm"}
-onChange: changeDbKeys(fgLinkDtlFg)</t>
-        </is>
-      </c>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="L170" s="11" t="n"/>
       <c r="M170" s="11" t="inlineStr">
         <is>
-          <t>parent_field_group_id</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N170" s="11" t="n"/>
@@ -6629,15 +6789,20 @@
       <c r="P170" s="11" t="n"/>
     </row>
     <row r="171">
-      <c r="C171" s="11" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="11" t="inlineStr">
+        <is>
+          <t>fgLinkToolbar</t>
+        </is>
+      </c>
       <c r="D171" s="11" t="inlineStr">
         <is>
-          <t>dtlFgLinkParentKeyField</t>
+          <t>bttHideFgLinkDtl</t>
         </is>
       </c>
       <c r="E171" s="11" t="inlineStr">
         <is>
-          <t>Parent Key</t>
+          <t>Hide Field Group Link Detail</t>
         </is>
       </c>
       <c r="F171" s="11" t="n"/>
@@ -6647,34 +6812,34 @@
       <c r="J171" s="11" t="n"/>
       <c r="K171" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
+          <t>IconAndText</t>
         </is>
       </c>
       <c r="L171" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getParentFgFieldDbKeys
-values: {"value": "parent_key", "display": "parent_key"}</t>
-        </is>
-      </c>
-      <c r="M171" s="11" t="inlineStr">
-        <is>
-          <t>parent_key</t>
-        </is>
-      </c>
-      <c r="N171" s="11" t="n"/>
+          <t>icon:images/back_button.gif</t>
+        </is>
+      </c>
+      <c r="M171" s="11" t="n"/>
+      <c r="N171" s="11" t="inlineStr">
+        <is>
+          <t>hideFgLinkDetail</t>
+        </is>
+      </c>
       <c r="O171" s="11" t="n"/>
       <c r="P171" s="11" t="n"/>
     </row>
     <row r="172">
+      <c r="B172" s="1" t="n"/>
       <c r="C172" s="11" t="n"/>
       <c r="D172" s="11" t="inlineStr">
         <is>
-          <t>dtlFgLinkRmkField</t>
+          <t>bttNewFgLink</t>
         </is>
       </c>
       <c r="E172" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>New Field Group Link</t>
         </is>
       </c>
       <c r="F172" s="11" t="n"/>
@@ -6684,33 +6849,34 @@
       <c r="J172" s="11" t="n"/>
       <c r="K172" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L172" s="11" t="n"/>
-      <c r="M172" s="11" t="inlineStr">
-        <is>
-          <t>rmk</t>
-        </is>
-      </c>
-      <c r="N172" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L172" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/new_button.gif</t>
+        </is>
+      </c>
+      <c r="M172" s="11" t="n"/>
+      <c r="N172" s="11" t="inlineStr">
+        <is>
+          <t>newFgLink</t>
+        </is>
+      </c>
       <c r="O172" s="11" t="n"/>
       <c r="P172" s="11" t="n"/>
     </row>
     <row r="173">
-      <c r="C173" s="11" t="inlineStr">
-        <is>
-          <t>fgLinkToolbar</t>
-        </is>
-      </c>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="11" t="n"/>
       <c r="D173" s="11" t="inlineStr">
         <is>
-          <t>bttHideFgLinkDtl</t>
+          <t>bttSaveFgLink</t>
         </is>
       </c>
       <c r="E173" s="11" t="inlineStr">
         <is>
-          <t>Hide Field Group Link Detail</t>
+          <t>Save Field Group Link</t>
         </is>
       </c>
       <c r="F173" s="11" t="n"/>
@@ -6725,28 +6891,29 @@
       </c>
       <c r="L173" s="11" t="inlineStr">
         <is>
-          <t>icon:images/back_button.gif</t>
+          <t>icon:images/save_button.gif</t>
         </is>
       </c>
       <c r="M173" s="11" t="n"/>
       <c r="N173" s="11" t="inlineStr">
         <is>
-          <t>hideFgLinkDetail</t>
+          <t>saveFgLink(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg, fgLinkDtlFg)</t>
         </is>
       </c>
       <c r="O173" s="11" t="n"/>
       <c r="P173" s="11" t="n"/>
     </row>
     <row r="174">
+      <c r="B174" s="1" t="n"/>
       <c r="C174" s="11" t="n"/>
       <c r="D174" s="11" t="inlineStr">
         <is>
-          <t>bttNewFgLink</t>
+          <t>bttDeleteFgLink</t>
         </is>
       </c>
       <c r="E174" s="11" t="inlineStr">
         <is>
-          <t>New Field Group Link</t>
+          <t>Delete Field Group Link</t>
         </is>
       </c>
       <c r="F174" s="11" t="n"/>
@@ -6761,28 +6928,33 @@
       </c>
       <c r="L174" s="11" t="inlineStr">
         <is>
-          <t>icon:images/new_button.gif</t>
+          <t>icon:images/delete_button.gif</t>
         </is>
       </c>
       <c r="M174" s="11" t="n"/>
       <c r="N174" s="11" t="inlineStr">
         <is>
-          <t>newFgLink</t>
+          <t>deleteFgLink</t>
         </is>
       </c>
       <c r="O174" s="11" t="n"/>
       <c r="P174" s="11" t="n"/>
     </row>
     <row r="175">
-      <c r="C175" s="11" t="n"/>
+      <c r="B175" s="1" t="n"/>
+      <c r="C175" s="11" t="inlineStr">
+        <is>
+          <t>fgHeaderFooterListFg</t>
+        </is>
+      </c>
       <c r="D175" s="11" t="inlineStr">
         <is>
-          <t>bttSaveFgLink</t>
+          <t>fgHfFgNmField</t>
         </is>
       </c>
       <c r="E175" s="11" t="inlineStr">
         <is>
-          <t>Save Field Group Link</t>
+          <t>Field Group Name</t>
         </is>
       </c>
       <c r="F175" s="11" t="n"/>
@@ -6792,33 +6964,30 @@
       <c r="J175" s="11" t="n"/>
       <c r="K175" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L175" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/save_button.gif</t>
-        </is>
-      </c>
-      <c r="M175" s="11" t="n"/>
-      <c r="N175" s="11" t="inlineStr">
-        <is>
-          <t>saveFgLink(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg, fgLinkDtlFg)</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L175" s="11" t="n"/>
+      <c r="M175" s="11" t="inlineStr">
+        <is>
+          <t>field_group_nm</t>
+        </is>
+      </c>
+      <c r="N175" s="11" t="n"/>
       <c r="O175" s="11" t="n"/>
       <c r="P175" s="11" t="n"/>
     </row>
     <row r="176">
+      <c r="B176" s="1" t="n"/>
       <c r="C176" s="11" t="n"/>
       <c r="D176" s="11" t="inlineStr">
         <is>
-          <t>bttDeleteFgLink</t>
+          <t>fgHfFieldNmField</t>
         </is>
       </c>
       <c r="E176" s="11" t="inlineStr">
         <is>
-          <t>Delete Field Group Link</t>
+          <t>Field Name</t>
         </is>
       </c>
       <c r="F176" s="11" t="n"/>
@@ -6828,37 +6997,30 @@
       <c r="J176" s="11" t="n"/>
       <c r="K176" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L176" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/delete_button.gif</t>
-        </is>
-      </c>
-      <c r="M176" s="11" t="n"/>
-      <c r="N176" s="11" t="inlineStr">
-        <is>
-          <t>deleteFgLink</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L176" s="11" t="n"/>
+      <c r="M176" s="11" t="inlineStr">
+        <is>
+          <t>field_nm</t>
+        </is>
+      </c>
+      <c r="N176" s="11" t="n"/>
       <c r="O176" s="11" t="n"/>
       <c r="P176" s="11" t="n"/>
     </row>
     <row r="177">
-      <c r="C177" s="11" t="inlineStr">
-        <is>
-          <t>fgHeaderFooterListFg</t>
-        </is>
-      </c>
+      <c r="B177" s="1" t="n"/>
+      <c r="C177" s="11" t="n"/>
       <c r="D177" s="11" t="inlineStr">
         <is>
-          <t>fgHfFgNmField</t>
+          <t>fgHfHl1Field</t>
         </is>
       </c>
       <c r="E177" s="11" t="inlineStr">
         <is>
-          <t>Field Group Name</t>
+          <t>Header level 1</t>
         </is>
       </c>
       <c r="F177" s="11" t="n"/>
@@ -6874,7 +7036,7 @@
       <c r="L177" s="11" t="n"/>
       <c r="M177" s="11" t="inlineStr">
         <is>
-          <t>field_group_nm</t>
+          <t>header_level1</t>
         </is>
       </c>
       <c r="N177" s="11" t="n"/>
@@ -6882,15 +7044,16 @@
       <c r="P177" s="11" t="n"/>
     </row>
     <row r="178">
+      <c r="B178" s="1" t="n"/>
       <c r="C178" s="11" t="n"/>
       <c r="D178" s="11" t="inlineStr">
         <is>
-          <t>fgHfFieldNmField</t>
+          <t>fgHfHl2Field</t>
         </is>
       </c>
       <c r="E178" s="11" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Header level 2</t>
         </is>
       </c>
       <c r="F178" s="11" t="n"/>
@@ -6906,7 +7069,7 @@
       <c r="L178" s="11" t="n"/>
       <c r="M178" s="11" t="inlineStr">
         <is>
-          <t>field_nm</t>
+          <t>header_level2</t>
         </is>
       </c>
       <c r="N178" s="11" t="n"/>
@@ -6914,15 +7077,16 @@
       <c r="P178" s="11" t="n"/>
     </row>
     <row r="179">
+      <c r="B179" s="1" t="n"/>
       <c r="C179" s="11" t="n"/>
       <c r="D179" s="11" t="inlineStr">
         <is>
-          <t>fgHfHl1Field</t>
+          <t>fgHfHl3Field</t>
         </is>
       </c>
       <c r="E179" s="11" t="inlineStr">
         <is>
-          <t>Header level 1</t>
+          <t>Header level 3</t>
         </is>
       </c>
       <c r="F179" s="11" t="n"/>
@@ -6938,7 +7102,7 @@
       <c r="L179" s="11" t="n"/>
       <c r="M179" s="11" t="inlineStr">
         <is>
-          <t>header_level1</t>
+          <t>header_level3</t>
         </is>
       </c>
       <c r="N179" s="11" t="n"/>
@@ -6946,15 +7110,16 @@
       <c r="P179" s="11" t="n"/>
     </row>
     <row r="180">
+      <c r="B180" s="1" t="n"/>
       <c r="C180" s="11" t="n"/>
       <c r="D180" s="11" t="inlineStr">
         <is>
-          <t>fgHfHl2Field</t>
+          <t>fgHfFooterField</t>
         </is>
       </c>
       <c r="E180" s="11" t="inlineStr">
         <is>
-          <t>Header level 2</t>
+          <t>Footer</t>
         </is>
       </c>
       <c r="F180" s="11" t="n"/>
@@ -6970,7 +7135,7 @@
       <c r="L180" s="11" t="n"/>
       <c r="M180" s="11" t="inlineStr">
         <is>
-          <t>header_level2</t>
+          <t>footer</t>
         </is>
       </c>
       <c r="N180" s="11" t="n"/>
@@ -6978,15 +7143,16 @@
       <c r="P180" s="11" t="n"/>
     </row>
     <row r="181">
+      <c r="B181" s="1" t="n"/>
       <c r="C181" s="11" t="n"/>
       <c r="D181" s="11" t="inlineStr">
         <is>
-          <t>fgHfHl3Field</t>
+          <t>fgHfRmkField</t>
         </is>
       </c>
       <c r="E181" s="11" t="inlineStr">
         <is>
-          <t>Header level 3</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F181" s="11" t="n"/>
@@ -7002,7 +7168,7 @@
       <c r="L181" s="11" t="n"/>
       <c r="M181" s="11" t="inlineStr">
         <is>
-          <t>header_level3</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N181" s="11" t="n"/>
@@ -7010,15 +7176,20 @@
       <c r="P181" s="11" t="n"/>
     </row>
     <row r="182">
-      <c r="C182" s="11" t="n"/>
+      <c r="B182" s="1" t="n"/>
+      <c r="C182" s="11" t="inlineStr">
+        <is>
+          <t>fgHeaderFooterDtlFg</t>
+        </is>
+      </c>
       <c r="D182" s="11" t="inlineStr">
         <is>
-          <t>fgHfFooterField</t>
+          <t>dtlFgHfFgNmField</t>
         </is>
       </c>
       <c r="E182" s="11" t="inlineStr">
         <is>
-          <t>Footer</t>
+          <t>Field Group Name</t>
         </is>
       </c>
       <c r="F182" s="11" t="n"/>
@@ -7028,13 +7199,19 @@
       <c r="J182" s="11" t="n"/>
       <c r="K182" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="L182" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L182" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getTableFieldGroups
+values: {"value": "id", "display": "fg_nm"}
+onChange: changeFgFields(fgHeaderFooterDtlFg)</t>
+        </is>
+      </c>
       <c r="M182" s="11" t="inlineStr">
         <is>
-          <t>footer</t>
+          <t>field_group_id</t>
         </is>
       </c>
       <c r="N182" s="11" t="n"/>
@@ -7042,15 +7219,16 @@
       <c r="P182" s="11" t="n"/>
     </row>
     <row r="183">
+      <c r="B183" s="1" t="n"/>
       <c r="C183" s="11" t="n"/>
       <c r="D183" s="11" t="inlineStr">
         <is>
-          <t>fgHfRmkField</t>
+          <t>dtlFgHfFieldNmField</t>
         </is>
       </c>
       <c r="E183" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Field Name</t>
         </is>
       </c>
       <c r="F183" s="11" t="n"/>
@@ -7060,13 +7238,18 @@
       <c r="J183" s="11" t="n"/>
       <c r="K183" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="L183" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L183" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFgFields
+values: {"value": "id", "display": "field_nm"}</t>
+        </is>
+      </c>
       <c r="M183" s="11" t="inlineStr">
         <is>
-          <t>rmk</t>
+          <t>field_id</t>
         </is>
       </c>
       <c r="N183" s="11" t="n"/>
@@ -7074,13 +7257,18 @@
       <c r="P183" s="11" t="n"/>
     </row>
     <row r="184">
+      <c r="B184" s="1" t="n"/>
       <c r="C184" s="11" t="n"/>
       <c r="D184" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
-        </is>
-      </c>
-      <c r="E184" s="11" t="n"/>
+          <t>dtlFgHfHl1Field</t>
+        </is>
+      </c>
+      <c r="E184" s="11" t="inlineStr">
+        <is>
+          <t>Header level 1</t>
+        </is>
+      </c>
       <c r="F184" s="11" t="n"/>
       <c r="G184" s="11" t="n"/>
       <c r="H184" s="11" t="n"/>
@@ -7088,37 +7276,30 @@
       <c r="J184" s="11" t="n"/>
       <c r="K184" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L184" s="11" t="n"/>
       <c r="M184" s="11" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N184" s="11" t="inlineStr">
-        <is>
-          <t>openFgHeaderFooter(@id)</t>
-        </is>
-      </c>
+          <t>header_level1</t>
+        </is>
+      </c>
+      <c r="N184" s="11" t="n"/>
       <c r="O184" s="11" t="n"/>
       <c r="P184" s="11" t="n"/>
     </row>
     <row r="185">
-      <c r="C185" s="11" t="inlineStr">
-        <is>
-          <t>fgHeaderFooterDtlFg</t>
-        </is>
-      </c>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="11" t="n"/>
       <c r="D185" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfFgNmField</t>
+          <t>dtlFgHfHl2Field</t>
         </is>
       </c>
       <c r="E185" s="11" t="inlineStr">
         <is>
-          <t>Field Group Name</t>
+          <t>Header level 2</t>
         </is>
       </c>
       <c r="F185" s="11" t="n"/>
@@ -7128,19 +7309,13 @@
       <c r="J185" s="11" t="n"/>
       <c r="K185" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L185" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getTableFieldGroups
-values: {"value": "id", "display": "fg_nm"}
-onChange: changeFgFields(fgHeaderFooterDtlFg)</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L185" s="11" t="n"/>
       <c r="M185" s="11" t="inlineStr">
         <is>
-          <t>field_group_id</t>
+          <t>header_level2</t>
         </is>
       </c>
       <c r="N185" s="11" t="n"/>
@@ -7148,15 +7323,16 @@
       <c r="P185" s="11" t="n"/>
     </row>
     <row r="186">
+      <c r="B186" s="1" t="n"/>
       <c r="C186" s="11" t="n"/>
       <c r="D186" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfFieldNmField</t>
+          <t>dtlFgHfHl3Field</t>
         </is>
       </c>
       <c r="E186" s="11" t="inlineStr">
         <is>
-          <t>Field Name</t>
+          <t>Header level 3</t>
         </is>
       </c>
       <c r="F186" s="11" t="n"/>
@@ -7166,18 +7342,13 @@
       <c r="J186" s="11" t="n"/>
       <c r="K186" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L186" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getFgFields
-values: {"value": "id", "display": "field_nm"}</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L186" s="11" t="n"/>
       <c r="M186" s="11" t="inlineStr">
         <is>
-          <t>field_id</t>
+          <t>header_level3</t>
         </is>
       </c>
       <c r="N186" s="11" t="n"/>
@@ -7185,15 +7356,16 @@
       <c r="P186" s="11" t="n"/>
     </row>
     <row r="187">
+      <c r="B187" s="1" t="n"/>
       <c r="C187" s="11" t="n"/>
       <c r="D187" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfHl1Field</t>
+          <t>dtlFgHfFooterField</t>
         </is>
       </c>
       <c r="E187" s="11" t="inlineStr">
         <is>
-          <t>Header level 1</t>
+          <t>Footer</t>
         </is>
       </c>
       <c r="F187" s="11" t="n"/>
@@ -7203,13 +7375,13 @@
       <c r="J187" s="11" t="n"/>
       <c r="K187" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="L187" s="11" t="n"/>
       <c r="M187" s="11" t="inlineStr">
         <is>
-          <t>header_level1</t>
+          <t>footer</t>
         </is>
       </c>
       <c r="N187" s="11" t="n"/>
@@ -7217,15 +7389,16 @@
       <c r="P187" s="11" t="n"/>
     </row>
     <row r="188">
+      <c r="B188" s="1" t="n"/>
       <c r="C188" s="11" t="n"/>
       <c r="D188" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfHl2Field</t>
+          <t>dtlFgHfRmkField</t>
         </is>
       </c>
       <c r="E188" s="11" t="inlineStr">
         <is>
-          <t>Header level 2</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F188" s="11" t="n"/>
@@ -7235,13 +7408,13 @@
       <c r="J188" s="11" t="n"/>
       <c r="K188" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="L188" s="11" t="n"/>
       <c r="M188" s="11" t="inlineStr">
         <is>
-          <t>header_level2</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N188" s="11" t="n"/>
@@ -7249,15 +7422,20 @@
       <c r="P188" s="11" t="n"/>
     </row>
     <row r="189">
-      <c r="C189" s="11" t="n"/>
+      <c r="B189" s="1" t="n"/>
+      <c r="C189" s="11" t="inlineStr">
+        <is>
+          <t>fgHeaderFooterToolbar</t>
+        </is>
+      </c>
       <c r="D189" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfHl3Field</t>
+          <t>bttHideFgHeaderFooterDtl</t>
         </is>
       </c>
       <c r="E189" s="11" t="inlineStr">
         <is>
-          <t>Header level 3</t>
+          <t>Hide Field Group Header Footer Detail</t>
         </is>
       </c>
       <c r="F189" s="11" t="n"/>
@@ -7267,29 +7445,34 @@
       <c r="J189" s="11" t="n"/>
       <c r="K189" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L189" s="11" t="n"/>
-      <c r="M189" s="11" t="inlineStr">
-        <is>
-          <t>header_level3</t>
-        </is>
-      </c>
-      <c r="N189" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L189" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/back_button.gif</t>
+        </is>
+      </c>
+      <c r="M189" s="11" t="n"/>
+      <c r="N189" s="11" t="inlineStr">
+        <is>
+          <t>hideFgHeaderFooterDetail</t>
+        </is>
+      </c>
       <c r="O189" s="11" t="n"/>
       <c r="P189" s="11" t="n"/>
     </row>
     <row r="190">
+      <c r="B190" s="1" t="n"/>
       <c r="C190" s="11" t="n"/>
       <c r="D190" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfFooterField</t>
+          <t>bttNewFgHeaderFooter</t>
         </is>
       </c>
       <c r="E190" s="11" t="inlineStr">
         <is>
-          <t>Footer</t>
+          <t>New Table Header and Footer</t>
         </is>
       </c>
       <c r="F190" s="11" t="n"/>
@@ -7299,29 +7482,34 @@
       <c r="J190" s="11" t="n"/>
       <c r="K190" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L190" s="11" t="n"/>
-      <c r="M190" s="11" t="inlineStr">
-        <is>
-          <t>footer</t>
-        </is>
-      </c>
-      <c r="N190" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L190" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/new_button.gif</t>
+        </is>
+      </c>
+      <c r="M190" s="11" t="n"/>
+      <c r="N190" s="11" t="inlineStr">
+        <is>
+          <t>newFgHeaderFooter</t>
+        </is>
+      </c>
       <c r="O190" s="11" t="n"/>
       <c r="P190" s="11" t="n"/>
     </row>
     <row r="191">
+      <c r="B191" s="1" t="n"/>
       <c r="C191" s="11" t="n"/>
       <c r="D191" s="11" t="inlineStr">
         <is>
-          <t>dtlFgHfRmkField</t>
+          <t>bttSaveHeaderFooter</t>
         </is>
       </c>
       <c r="E191" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Save Table Header and Footer</t>
         </is>
       </c>
       <c r="F191" s="11" t="n"/>
@@ -7331,33 +7519,34 @@
       <c r="J191" s="11" t="n"/>
       <c r="K191" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L191" s="11" t="n"/>
-      <c r="M191" s="11" t="inlineStr">
-        <is>
-          <t>rmk</t>
-        </is>
-      </c>
-      <c r="N191" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L191" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/save_button.gif</t>
+        </is>
+      </c>
+      <c r="M191" s="11" t="n"/>
+      <c r="N191" s="11" t="inlineStr">
+        <is>
+          <t>saveFgHeaderFooter(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg, fgLinkDtlFg, fgHeaderFooterDtlFg)</t>
+        </is>
+      </c>
       <c r="O191" s="11" t="n"/>
       <c r="P191" s="11" t="n"/>
     </row>
     <row r="192">
-      <c r="C192" s="11" t="inlineStr">
-        <is>
-          <t>fgHeaderFooterToolbar</t>
-        </is>
-      </c>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="11" t="n"/>
       <c r="D192" s="11" t="inlineStr">
         <is>
-          <t>bttHideFgHeaderFooterDtl</t>
+          <t>bttDeleteHeaderFooter</t>
         </is>
       </c>
       <c r="E192" s="11" t="inlineStr">
         <is>
-          <t>Hide Field Group Header Footer Detail</t>
+          <t>Delete Table Header and Footer</t>
         </is>
       </c>
       <c r="F192" s="11" t="n"/>
@@ -7372,28 +7561,33 @@
       </c>
       <c r="L192" s="11" t="inlineStr">
         <is>
-          <t>icon:images/back_button.gif</t>
+          <t>icon:images/delete_button.gif</t>
         </is>
       </c>
       <c r="M192" s="11" t="n"/>
       <c r="N192" s="11" t="inlineStr">
         <is>
-          <t>hideFgHeaderFooterDetail</t>
+          <t>deleteFgHeaderFooter</t>
         </is>
       </c>
       <c r="O192" s="11" t="n"/>
       <c r="P192" s="11" t="n"/>
     </row>
     <row r="193">
-      <c r="C193" s="11" t="n"/>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="11" t="inlineStr">
+        <is>
+          <t>dialogResetRevFg</t>
+        </is>
+      </c>
       <c r="D193" s="11" t="inlineStr">
         <is>
-          <t>bttNewFgHeaderFooter</t>
+          <t>newRev</t>
         </is>
       </c>
       <c r="E193" s="11" t="inlineStr">
         <is>
-          <t>New Table Header and Footer</t>
+          <t>New Revision</t>
         </is>
       </c>
       <c r="F193" s="11" t="n"/>
@@ -7403,33 +7597,30 @@
       <c r="J193" s="11" t="n"/>
       <c r="K193" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L193" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/new_button.gif</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L193" s="11" t="n"/>
       <c r="M193" s="11" t="n"/>
-      <c r="N193" s="11" t="inlineStr">
-        <is>
-          <t>newFgHeaderFooter</t>
-        </is>
-      </c>
+      <c r="N193" s="11" t="n"/>
       <c r="O193" s="11" t="n"/>
       <c r="P193" s="11" t="n"/>
     </row>
     <row r="194">
-      <c r="C194" s="11" t="n"/>
+      <c r="B194" s="1" t="n"/>
+      <c r="C194" s="11" t="inlineStr">
+        <is>
+          <t>dialogCopyPramsFg</t>
+        </is>
+      </c>
       <c r="D194" s="11" t="inlineStr">
         <is>
-          <t>bttSaveHeaderFooter</t>
+          <t>screenSn</t>
         </is>
       </c>
       <c r="E194" s="11" t="inlineStr">
         <is>
-          <t>Save Table Header and Footer</t>
+          <t>New Screen ID</t>
         </is>
       </c>
       <c r="F194" s="11" t="n"/>
@@ -7439,33 +7630,30 @@
       <c r="J194" s="11" t="n"/>
       <c r="K194" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L194" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/save_button.gif</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L194" s="11" t="n"/>
       <c r="M194" s="11" t="n"/>
-      <c r="N194" s="11" t="inlineStr">
-        <is>
-          <t>saveFgHeaderFooter(screenDtlFg, recordsetListFg, fieldGroupDtlFg, fieldListFg, subScreenFg, fgLinkDtlFg, fgHeaderFooterDtlFg)</t>
-        </is>
-      </c>
+      <c r="N194" s="11" t="n"/>
       <c r="O194" s="11" t="n"/>
       <c r="P194" s="11" t="n"/>
     </row>
     <row r="195">
-      <c r="C195" s="11" t="n"/>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="11" t="inlineStr">
+        <is>
+          <t>dialogWidgetPramsFg</t>
+        </is>
+      </c>
       <c r="D195" s="11" t="inlineStr">
         <is>
-          <t>bttDeleteHeaderFooter</t>
+          <t>placeholderField</t>
         </is>
       </c>
       <c r="E195" s="11" t="inlineStr">
         <is>
-          <t>Delete Table Header and Footer</t>
+          <t>Placeholder</t>
         </is>
       </c>
       <c r="F195" s="11" t="n"/>
@@ -7475,37 +7663,34 @@
       <c r="J195" s="11" t="n"/>
       <c r="K195" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L195" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/delete_button.gif</t>
-        </is>
-      </c>
-      <c r="M195" s="11" t="n"/>
-      <c r="N195" s="11" t="inlineStr">
-        <is>
-          <t>deleteFgHeaderFooter</t>
-        </is>
-      </c>
-      <c r="O195" s="11" t="n"/>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L195" s="11" t="n"/>
+      <c r="M195" s="11" t="inlineStr">
+        <is>
+          <t>placeholder</t>
+        </is>
+      </c>
+      <c r="N195" s="11" t="n"/>
+      <c r="O195" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P195" s="11" t="n"/>
     </row>
     <row r="196">
-      <c r="C196" s="11" t="inlineStr">
-        <is>
-          <t>dialogResetRevFg</t>
-        </is>
-      </c>
+      <c r="B196" s="1" t="n"/>
+      <c r="C196" s="11" t="n"/>
       <c r="D196" s="11" t="inlineStr">
         <is>
-          <t>newRev</t>
+          <t>formatField1</t>
         </is>
       </c>
       <c r="E196" s="11" t="inlineStr">
         <is>
-          <t>New Revision</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="F196" s="11" t="n"/>
@@ -7519,25 +7704,30 @@
         </is>
       </c>
       <c r="L196" s="11" t="n"/>
-      <c r="M196" s="11" t="n"/>
+      <c r="M196" s="11" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
       <c r="N196" s="11" t="n"/>
-      <c r="O196" s="11" t="n"/>
+      <c r="O196" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P196" s="11" t="n"/>
     </row>
     <row r="197">
-      <c r="C197" s="11" t="inlineStr">
-        <is>
-          <t>dialogCopyPramsFg</t>
-        </is>
-      </c>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="11" t="n"/>
       <c r="D197" s="11" t="inlineStr">
         <is>
-          <t>screenSn</t>
+          <t>formatField2</t>
         </is>
       </c>
       <c r="E197" s="11" t="inlineStr">
         <is>
-          <t>New Screen ID</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="F197" s="11" t="n"/>
@@ -7547,29 +7737,38 @@
       <c r="J197" s="11" t="n"/>
       <c r="K197" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L197" s="11" t="n"/>
-      <c r="M197" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L197" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getFormat</t>
+        </is>
+      </c>
+      <c r="M197" s="11" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
       <c r="N197" s="11" t="n"/>
-      <c r="O197" s="11" t="n"/>
+      <c r="O197" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P197" s="11" t="n"/>
     </row>
     <row r="198">
-      <c r="C198" s="11" t="inlineStr">
-        <is>
-          <t>dialogWidgetPramsFg</t>
-        </is>
-      </c>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="11" t="n"/>
       <c r="D198" s="11" t="inlineStr">
         <is>
-          <t>placeholderField</t>
+          <t>stateNumField</t>
         </is>
       </c>
       <c r="E198" s="11" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t>State Number</t>
         </is>
       </c>
       <c r="F198" s="11" t="n"/>
@@ -7579,13 +7778,17 @@
       <c r="J198" s="11" t="n"/>
       <c r="K198" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L198" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L198" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getStateNum</t>
+        </is>
+      </c>
       <c r="M198" s="11" t="inlineStr">
         <is>
-          <t>placeholder</t>
+          <t>stateNumber</t>
         </is>
       </c>
       <c r="N198" s="11" t="n"/>
@@ -7597,15 +7800,16 @@
       <c r="P198" s="11" t="n"/>
     </row>
     <row r="199">
+      <c r="B199" s="1" t="n"/>
       <c r="C199" s="11" t="n"/>
       <c r="D199" s="11" t="inlineStr">
         <is>
-          <t>formatField1</t>
+          <t>captionPositionField</t>
         </is>
       </c>
       <c r="E199" s="11" t="inlineStr">
         <is>
-          <t>Format</t>
+          <t>Caption Position</t>
         </is>
       </c>
       <c r="F199" s="11" t="n"/>
@@ -7615,13 +7819,17 @@
       <c r="J199" s="11" t="n"/>
       <c r="K199" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L199" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L199" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getCaptionPosition</t>
+        </is>
+      </c>
       <c r="M199" s="11" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>captionPosition</t>
         </is>
       </c>
       <c r="N199" s="11" t="n"/>
@@ -7633,15 +7841,16 @@
       <c r="P199" s="11" t="n"/>
     </row>
     <row r="200">
+      <c r="B200" s="1" t="n"/>
       <c r="C200" s="11" t="n"/>
       <c r="D200" s="11" t="inlineStr">
         <is>
-          <t>formatField2</t>
+          <t>multipleField</t>
         </is>
       </c>
       <c r="E200" s="11" t="inlineStr">
         <is>
-          <t>Format</t>
+          <t>Multiple</t>
         </is>
       </c>
       <c r="F200" s="11" t="n"/>
@@ -7651,37 +7860,30 @@
       <c r="J200" s="11" t="n"/>
       <c r="K200" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L200" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getFormat</t>
-        </is>
-      </c>
+          <t>CheckBox</t>
+        </is>
+      </c>
+      <c r="L200" s="11" t="n"/>
       <c r="M200" s="11" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="N200" s="11" t="n"/>
-      <c r="O200" s="11" t="inlineStr">
-        <is>
-          <t>width: 255px;</t>
-        </is>
-      </c>
+      <c r="O200" s="11" t="n"/>
       <c r="P200" s="11" t="n"/>
     </row>
     <row r="201">
+      <c r="B201" s="1" t="n"/>
       <c r="C201" s="11" t="n"/>
       <c r="D201" s="11" t="inlineStr">
         <is>
-          <t>stateNumField</t>
+          <t>iconField</t>
         </is>
       </c>
       <c r="E201" s="11" t="inlineStr">
         <is>
-          <t>State Number</t>
+          <t>Icon</t>
         </is>
       </c>
       <c r="F201" s="11" t="n"/>
@@ -7691,17 +7893,13 @@
       <c r="J201" s="11" t="n"/>
       <c r="K201" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L201" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getStateNum</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L201" s="11" t="n"/>
       <c r="M201" s="11" t="inlineStr">
         <is>
-          <t>stateNumber</t>
+          <t>icon</t>
         </is>
       </c>
       <c r="N201" s="11" t="n"/>
@@ -7713,15 +7911,16 @@
       <c r="P201" s="11" t="n"/>
     </row>
     <row r="202">
+      <c r="B202" s="1" t="n"/>
       <c r="C202" s="11" t="n"/>
       <c r="D202" s="11" t="inlineStr">
         <is>
-          <t>captionPositionField</t>
+          <t>typeField</t>
         </is>
       </c>
       <c r="E202" s="11" t="inlineStr">
         <is>
-          <t>Caption Position</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="F202" s="11" t="n"/>
@@ -7736,12 +7935,13 @@
       </c>
       <c r="L202" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getCaptionPosition</t>
+          <t>dataUrl: getBttType
+onChange: saveBttType</t>
         </is>
       </c>
       <c r="M202" s="11" t="inlineStr">
         <is>
-          <t>captionPosition</t>
+          <t>type</t>
         </is>
       </c>
       <c r="N202" s="11" t="n"/>
@@ -7753,15 +7953,16 @@
       <c r="P202" s="11" t="n"/>
     </row>
     <row r="203">
+      <c r="B203" s="1" t="n"/>
       <c r="C203" s="11" t="n"/>
       <c r="D203" s="11" t="inlineStr">
         <is>
-          <t>multipleField</t>
+          <t>recordsetField</t>
         </is>
       </c>
       <c r="E203" s="11" t="inlineStr">
         <is>
-          <t>Multiple</t>
+          <t>Recordset</t>
         </is>
       </c>
       <c r="F203" s="11" t="n"/>
@@ -7771,29 +7972,39 @@
       <c r="J203" s="11" t="n"/>
       <c r="K203" s="11" t="inlineStr">
         <is>
-          <t>CheckBox</t>
-        </is>
-      </c>
-      <c r="L203" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L203" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getScreenRecordsets
+values: {"value": "id", "display": "recordset_nm"}</t>
+        </is>
+      </c>
       <c r="M203" s="11" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>recordset</t>
         </is>
       </c>
       <c r="N203" s="11" t="n"/>
-      <c r="O203" s="11" t="n"/>
+      <c r="O203" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P203" s="11" t="n"/>
     </row>
     <row r="204">
+      <c r="B204" s="1" t="n"/>
       <c r="C204" s="11" t="n"/>
       <c r="D204" s="11" t="inlineStr">
         <is>
-          <t>iconField</t>
+          <t>dataField</t>
         </is>
       </c>
       <c r="E204" s="11" t="inlineStr">
         <is>
-          <t>Icon</t>
+          <t>Static Data</t>
         </is>
       </c>
       <c r="F204" s="11" t="n"/>
@@ -7803,33 +8014,34 @@
       <c r="J204" s="11" t="n"/>
       <c r="K204" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="L204" s="11" t="n"/>
       <c r="M204" s="11" t="inlineStr">
         <is>
-          <t>icon</t>
+          <t>data</t>
         </is>
       </c>
       <c r="N204" s="11" t="n"/>
       <c r="O204" s="11" t="inlineStr">
         <is>
-          <t>width: 255px;</t>
+          <t>width: 256px;</t>
         </is>
       </c>
       <c r="P204" s="11" t="n"/>
     </row>
     <row r="205">
+      <c r="B205" s="1" t="n"/>
       <c r="C205" s="11" t="n"/>
       <c r="D205" s="11" t="inlineStr">
         <is>
-          <t>typeField</t>
+          <t>dataUrlField</t>
         </is>
       </c>
       <c r="E205" s="11" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Data API</t>
         </is>
       </c>
       <c r="F205" s="11" t="n"/>
@@ -7839,18 +8051,13 @@
       <c r="J205" s="11" t="n"/>
       <c r="K205" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L205" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getBttType
-onChange: saveBttType</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L205" s="11" t="n"/>
       <c r="M205" s="11" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>dataUrl</t>
         </is>
       </c>
       <c r="N205" s="11" t="n"/>
@@ -7862,15 +8069,16 @@
       <c r="P205" s="11" t="n"/>
     </row>
     <row r="206">
+      <c r="B206" s="1" t="n"/>
       <c r="C206" s="11" t="n"/>
       <c r="D206" s="11" t="inlineStr">
         <is>
-          <t>recordsetField</t>
+          <t>valueField</t>
         </is>
       </c>
       <c r="E206" s="11" t="inlineStr">
         <is>
-          <t>Recordset</t>
+          <t>Value Field</t>
         </is>
       </c>
       <c r="F206" s="11" t="n"/>
@@ -7880,18 +8088,17 @@
       <c r="J206" s="11" t="n"/>
       <c r="K206" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L206" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getScreenRecordsets
-values: {"value": "id", "display": "recordset_nm"}</t>
+          <t>placeholder: value</t>
         </is>
       </c>
       <c r="M206" s="11" t="inlineStr">
         <is>
-          <t>recordset</t>
+          <t>value</t>
         </is>
       </c>
       <c r="N206" s="11" t="n"/>
@@ -7903,15 +8110,16 @@
       <c r="P206" s="11" t="n"/>
     </row>
     <row r="207">
+      <c r="B207" s="1" t="n"/>
       <c r="C207" s="11" t="n"/>
       <c r="D207" s="11" t="inlineStr">
         <is>
-          <t>dataField</t>
+          <t>displayField</t>
         </is>
       </c>
       <c r="E207" s="11" t="inlineStr">
         <is>
-          <t>Static Data</t>
+          <t>Display Field</t>
         </is>
       </c>
       <c r="F207" s="11" t="n"/>
@@ -7921,33 +8129,38 @@
       <c r="J207" s="11" t="n"/>
       <c r="K207" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L207" s="11" t="n"/>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L207" s="11" t="inlineStr">
+        <is>
+          <t>placeholder: display</t>
+        </is>
+      </c>
       <c r="M207" s="11" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>display</t>
         </is>
       </c>
       <c r="N207" s="11" t="n"/>
       <c r="O207" s="11" t="inlineStr">
         <is>
-          <t>width: 256px;</t>
+          <t>width: 255px;</t>
         </is>
       </c>
       <c r="P207" s="11" t="n"/>
     </row>
     <row r="208">
+      <c r="B208" s="1" t="n"/>
       <c r="C208" s="11" t="n"/>
       <c r="D208" s="11" t="inlineStr">
         <is>
-          <t>dataUrlField</t>
+          <t>onChangeField</t>
         </is>
       </c>
       <c r="E208" s="11" t="inlineStr">
         <is>
-          <t>Data API</t>
+          <t>On Change</t>
         </is>
       </c>
       <c r="F208" s="11" t="n"/>
@@ -7963,7 +8176,7 @@
       <c r="L208" s="11" t="n"/>
       <c r="M208" s="11" t="inlineStr">
         <is>
-          <t>dataUrl</t>
+          <t>onChange</t>
         </is>
       </c>
       <c r="N208" s="11" t="n"/>
@@ -7975,15 +8188,16 @@
       <c r="P208" s="11" t="n"/>
     </row>
     <row r="209">
+      <c r="B209" s="1" t="n"/>
       <c r="C209" s="11" t="n"/>
       <c r="D209" s="11" t="inlineStr">
         <is>
-          <t>valueField</t>
+          <t>serverFilterField</t>
         </is>
       </c>
       <c r="E209" s="11" t="inlineStr">
         <is>
-          <t>Value Field</t>
+          <t>Server side filter</t>
         </is>
       </c>
       <c r="F209" s="11" t="n"/>
@@ -7993,37 +8207,30 @@
       <c r="J209" s="11" t="n"/>
       <c r="K209" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L209" s="11" t="inlineStr">
-        <is>
-          <t>placeholder: value</t>
-        </is>
-      </c>
+          <t>CheckBox</t>
+        </is>
+      </c>
+      <c r="L209" s="11" t="n"/>
       <c r="M209" s="11" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>server_filter</t>
         </is>
       </c>
       <c r="N209" s="11" t="n"/>
-      <c r="O209" s="11" t="inlineStr">
-        <is>
-          <t>width: 255px;</t>
-        </is>
-      </c>
+      <c r="O209" s="11" t="n"/>
       <c r="P209" s="11" t="n"/>
     </row>
     <row r="210">
+      <c r="B210" s="1" t="n"/>
       <c r="C210" s="11" t="n"/>
       <c r="D210" s="11" t="inlineStr">
         <is>
-          <t>displayField</t>
+          <t>pageSizeField</t>
         </is>
       </c>
       <c r="E210" s="11" t="inlineStr">
         <is>
-          <t>Display Field</t>
+          <t>Page size</t>
         </is>
       </c>
       <c r="F210" s="11" t="n"/>
@@ -8036,14 +8243,10 @@
           <t>TextBox</t>
         </is>
       </c>
-      <c r="L210" s="11" t="inlineStr">
-        <is>
-          <t>placeholder: display</t>
-        </is>
-      </c>
+      <c r="L210" s="11" t="n"/>
       <c r="M210" s="11" t="inlineStr">
         <is>
-          <t>display</t>
+          <t>page_size</t>
         </is>
       </c>
       <c r="N210" s="11" t="n"/>
@@ -8055,15 +8258,16 @@
       <c r="P210" s="11" t="n"/>
     </row>
     <row r="211">
+      <c r="B211" s="1" t="n"/>
       <c r="C211" s="11" t="n"/>
       <c r="D211" s="11" t="inlineStr">
         <is>
-          <t>onChangeField</t>
+          <t>columnField</t>
         </is>
       </c>
       <c r="E211" s="11" t="inlineStr">
         <is>
-          <t>On Change</t>
+          <t>Columns</t>
         </is>
       </c>
       <c r="F211" s="11" t="n"/>
@@ -8079,7 +8283,7 @@
       <c r="L211" s="11" t="n"/>
       <c r="M211" s="11" t="inlineStr">
         <is>
-          <t>onChange</t>
+          <t>columns</t>
         </is>
       </c>
       <c r="N211" s="11" t="n"/>
@@ -8091,19 +8295,16 @@
       <c r="P211" s="11" t="n"/>
     </row>
     <row r="212">
-      <c r="C212" s="11" t="inlineStr">
-        <is>
-          <t>dialogWidgetDialogPramsFg</t>
-        </is>
-      </c>
+      <c r="B212" s="1" t="n"/>
+      <c r="C212" s="11" t="n"/>
       <c r="D212" s="11" t="inlineStr">
         <is>
-          <t>dialogNmField</t>
+          <t>titleField</t>
         </is>
       </c>
       <c r="E212" s="11" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F212" s="11" t="n"/>
@@ -8119,23 +8320,32 @@
       <c r="L212" s="11" t="n"/>
       <c r="M212" s="11" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="N212" s="11" t="n"/>
-      <c r="O212" s="11" t="n"/>
+      <c r="O212" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
       <c r="P212" s="11" t="n"/>
     </row>
     <row r="213">
-      <c r="C213" s="11" t="n"/>
+      <c r="B213" s="1" t="n"/>
+      <c r="C213" s="11" t="inlineStr">
+        <is>
+          <t>dialogWidgetDialogPramsFg</t>
+        </is>
+      </c>
       <c r="D213" s="11" t="inlineStr">
         <is>
-          <t>dialogTitleField</t>
+          <t>dialogNmField</t>
         </is>
       </c>
       <c r="E213" s="11" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F213" s="11" t="n"/>
@@ -8151,7 +8361,7 @@
       <c r="L213" s="11" t="n"/>
       <c r="M213" s="11" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>name</t>
         </is>
       </c>
       <c r="N213" s="11" t="n"/>
@@ -8159,15 +8369,16 @@
       <c r="P213" s="11" t="n"/>
     </row>
     <row r="214">
+      <c r="B214" s="1" t="n"/>
       <c r="C214" s="11" t="n"/>
       <c r="D214" s="11" t="inlineStr">
         <is>
-          <t>dialogUploadTipField</t>
+          <t>dialogTitleField</t>
         </is>
       </c>
       <c r="E214" s="11" t="inlineStr">
         <is>
-          <t>Upload Tip</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F214" s="11" t="n"/>
@@ -8183,7 +8394,7 @@
       <c r="L214" s="11" t="n"/>
       <c r="M214" s="11" t="inlineStr">
         <is>
-          <t>uploadTip</t>
+          <t>title</t>
         </is>
       </c>
       <c r="N214" s="11" t="n"/>
@@ -8191,15 +8402,16 @@
       <c r="P214" s="11" t="n"/>
     </row>
     <row r="215">
+      <c r="B215" s="1" t="n"/>
       <c r="C215" s="11" t="n"/>
       <c r="D215" s="11" t="inlineStr">
         <is>
-          <t>dialogBeforeDisplayEventField</t>
+          <t>dialogUploadTipField</t>
         </is>
       </c>
       <c r="E215" s="11" t="inlineStr">
         <is>
-          <t>Before Display Event</t>
+          <t>Upload Tip</t>
         </is>
       </c>
       <c r="F215" s="11" t="n"/>
@@ -8215,7 +8427,7 @@
       <c r="L215" s="11" t="n"/>
       <c r="M215" s="11" t="inlineStr">
         <is>
-          <t>beforeDisplayEvent</t>
+          <t>uploadTip</t>
         </is>
       </c>
       <c r="N215" s="11" t="n"/>
@@ -8223,15 +8435,16 @@
       <c r="P215" s="11" t="n"/>
     </row>
     <row r="216">
+      <c r="B216" s="1" t="n"/>
       <c r="C216" s="11" t="n"/>
       <c r="D216" s="11" t="inlineStr">
         <is>
-          <t>dialogContinueNmField</t>
+          <t>dialogBeforeDisplayEventField</t>
         </is>
       </c>
       <c r="E216" s="11" t="inlineStr">
         <is>
-          <t>Continue Button Caption</t>
+          <t>Before Display Event</t>
         </is>
       </c>
       <c r="F216" s="11" t="n"/>
@@ -8247,7 +8460,7 @@
       <c r="L216" s="11" t="n"/>
       <c r="M216" s="11" t="inlineStr">
         <is>
-          <t>continueName</t>
+          <t>beforeDisplayEvent</t>
         </is>
       </c>
       <c r="N216" s="11" t="n"/>
@@ -8255,15 +8468,16 @@
       <c r="P216" s="11" t="n"/>
     </row>
     <row r="217">
+      <c r="B217" s="1" t="n"/>
       <c r="C217" s="11" t="n"/>
       <c r="D217" s="11" t="inlineStr">
         <is>
-          <t>dialogCancelNmField</t>
+          <t>dialogContinueNmField</t>
         </is>
       </c>
       <c r="E217" s="11" t="inlineStr">
         <is>
-          <t>Cancel Button Caption</t>
+          <t>Continue Button Caption</t>
         </is>
       </c>
       <c r="F217" s="11" t="n"/>
@@ -8279,7 +8493,7 @@
       <c r="L217" s="11" t="n"/>
       <c r="M217" s="11" t="inlineStr">
         <is>
-          <t>cancelName</t>
+          <t>continueName</t>
         </is>
       </c>
       <c r="N217" s="11" t="n"/>
@@ -8287,22 +8501,19 @@
       <c r="P217" s="11" t="n"/>
     </row>
     <row r="218">
+      <c r="B218" s="1" t="n"/>
       <c r="C218" s="11" t="n"/>
       <c r="D218" s="11" t="inlineStr">
         <is>
-          <t>dialogWidthField</t>
+          <t>dialogCancelNmField</t>
         </is>
       </c>
       <c r="E218" s="11" t="inlineStr">
         <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="F218" s="11" t="inlineStr">
-        <is>
-          <t>px/vw/%</t>
-        </is>
-      </c>
+          <t>Cancel Button Caption</t>
+        </is>
+      </c>
+      <c r="F218" s="11" t="n"/>
       <c r="G218" s="11" t="n"/>
       <c r="H218" s="11" t="n"/>
       <c r="I218" s="11" t="n"/>
@@ -8315,7 +8526,7 @@
       <c r="L218" s="11" t="n"/>
       <c r="M218" s="11" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>cancelName</t>
         </is>
       </c>
       <c r="N218" s="11" t="n"/>
@@ -8323,20 +8534,21 @@
       <c r="P218" s="11" t="n"/>
     </row>
     <row r="219">
+      <c r="B219" s="1" t="n"/>
       <c r="C219" s="11" t="n"/>
       <c r="D219" s="11" t="inlineStr">
         <is>
-          <t>dialogHeightField</t>
+          <t>dialogWidthField</t>
         </is>
       </c>
       <c r="E219" s="11" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="F219" s="11" t="inlineStr">
         <is>
-          <t>px/vh/%</t>
+          <t>px/vw/%</t>
         </is>
       </c>
       <c r="G219" s="11" t="n"/>
@@ -8351,7 +8563,7 @@
       <c r="L219" s="11" t="n"/>
       <c r="M219" s="11" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>width</t>
         </is>
       </c>
       <c r="N219" s="11" t="n"/>
@@ -8359,31 +8571,36 @@
       <c r="P219" s="11" t="n"/>
     </row>
     <row r="220">
+      <c r="B220" s="1" t="n"/>
       <c r="C220" s="11" t="n"/>
       <c r="D220" s="11" t="inlineStr">
         <is>
-          <t>dialogContentField</t>
+          <t>dialogHeightField</t>
         </is>
       </c>
       <c r="E220" s="11" t="inlineStr">
         <is>
-          <t>Content</t>
-        </is>
-      </c>
-      <c r="F220" s="11" t="n"/>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F220" s="11" t="inlineStr">
+        <is>
+          <t>px/vh/%</t>
+        </is>
+      </c>
       <c r="G220" s="11" t="n"/>
       <c r="H220" s="11" t="n"/>
       <c r="I220" s="11" t="n"/>
       <c r="J220" s="11" t="n"/>
       <c r="K220" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L220" s="11" t="n"/>
       <c r="M220" s="11" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>height</t>
         </is>
       </c>
       <c r="N220" s="11" t="n"/>
@@ -8391,153 +8608,175 @@
       <c r="P220" s="11" t="n"/>
     </row>
     <row r="221">
-      <c r="C221" s="11" t="inlineStr">
-        <is>
-          <t>dialogAdditionalPropsFg</t>
-        </is>
-      </c>
+      <c r="B221" s="1" t="n"/>
+      <c r="C221" s="11" t="n"/>
       <c r="D221" s="11" t="inlineStr">
         <is>
-          <t>tableHeightField</t>
+          <t>dialogContentField</t>
         </is>
       </c>
       <c r="E221" s="11" t="inlineStr">
         <is>
-          <t>Table Height</t>
-        </is>
-      </c>
-      <c r="F221" s="11" t="inlineStr">
-        <is>
-          <t>px</t>
-        </is>
-      </c>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="F221" s="11" t="n"/>
       <c r="G221" s="11" t="n"/>
       <c r="H221" s="11" t="n"/>
       <c r="I221" s="11" t="n"/>
       <c r="J221" s="11" t="n"/>
       <c r="K221" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="L221" s="11" t="n"/>
       <c r="M221" s="11" t="inlineStr">
         <is>
-          <t>tableHeight</t>
+          <t>content</t>
         </is>
       </c>
       <c r="N221" s="11" t="n"/>
-      <c r="O221" s="11" t="inlineStr">
-        <is>
-          <t>width: 255px;</t>
-        </is>
-      </c>
+      <c r="O221" s="11" t="n"/>
       <c r="P221" s="11" t="n"/>
     </row>
     <row r="222">
-      <c r="C222" s="11" t="n"/>
+      <c r="B222" s="1" t="n"/>
+      <c r="C222" s="11" t="inlineStr">
+        <is>
+          <t>dialogAdditionalPropsFg</t>
+        </is>
+      </c>
       <c r="D222" s="11" t="inlineStr">
         <is>
-          <t>sortNewRowsField</t>
+          <t>tableHeightField</t>
         </is>
       </c>
       <c r="E222" s="11" t="inlineStr">
         <is>
-          <t>Sort New Rows</t>
-        </is>
-      </c>
-      <c r="F222" s="11" t="n"/>
+          <t>Table Height</t>
+        </is>
+      </c>
+      <c r="F222" s="11" t="inlineStr">
+        <is>
+          <t>px</t>
+        </is>
+      </c>
       <c r="G222" s="11" t="n"/>
       <c r="H222" s="11" t="n"/>
       <c r="I222" s="11" t="n"/>
       <c r="J222" s="11" t="n"/>
       <c r="K222" s="11" t="inlineStr">
         <is>
-          <t>CheckBox</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L222" s="11" t="n"/>
       <c r="M222" s="11" t="inlineStr">
         <is>
+          <t>tableHeight</t>
+        </is>
+      </c>
+      <c r="N222" s="11" t="n"/>
+      <c r="O222" s="11" t="inlineStr">
+        <is>
+          <t>width: 255px;</t>
+        </is>
+      </c>
+      <c r="P222" s="11" t="n"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="1" t="n"/>
+      <c r="C223" s="11" t="n"/>
+      <c r="D223" s="11" t="inlineStr">
+        <is>
+          <t>sortNewRowsField</t>
+        </is>
+      </c>
+      <c r="E223" s="11" t="inlineStr">
+        <is>
+          <t>Sort New Rows</t>
+        </is>
+      </c>
+      <c r="F223" s="11" t="n"/>
+      <c r="G223" s="11" t="n"/>
+      <c r="H223" s="11" t="n"/>
+      <c r="I223" s="11" t="n"/>
+      <c r="J223" s="11" t="n"/>
+      <c r="K223" s="11" t="inlineStr">
+        <is>
+          <t>CheckBox</t>
+        </is>
+      </c>
+      <c r="L223" s="11" t="n"/>
+      <c r="M223" s="11" t="inlineStr">
+        <is>
           <t>sortNewRows</t>
         </is>
       </c>
-      <c r="N222" s="11" t="n"/>
-      <c r="O222" s="11" t="n"/>
-      <c r="P222" s="11" t="n"/>
-    </row>
-    <row r="223">
-      <c r="C223" s="5" t="inlineStr">
+      <c r="N223" s="11" t="n"/>
+      <c r="O223" s="11" t="n"/>
+      <c r="P223" s="11" t="n"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D223" s="3" t="n"/>
-      <c r="E223" s="3" t="n"/>
-      <c r="F223" s="3" t="n"/>
-      <c r="G223" s="3" t="n"/>
-      <c r="H223" s="3" t="n"/>
-      <c r="I223" s="3" t="n"/>
-      <c r="J223" s="3" t="n"/>
-      <c r="K223" s="3" t="n"/>
-      <c r="L223" s="3" t="n"/>
-      <c r="M223" s="3" t="n"/>
-      <c r="N223" s="3" t="n"/>
-      <c r="O223" s="3" t="n"/>
-      <c r="P223" s="3" t="n"/>
-    </row>
-    <row r="224"/>
+      <c r="D224" s="3" t="n"/>
+      <c r="E224" s="3" t="n"/>
+      <c r="F224" s="3" t="n"/>
+      <c r="G224" s="3" t="n"/>
+      <c r="H224" s="3" t="n"/>
+      <c r="I224" s="3" t="n"/>
+      <c r="J224" s="3" t="n"/>
+      <c r="K224" s="3" t="n"/>
+      <c r="L224" s="3" t="n"/>
+      <c r="M224" s="3" t="n"/>
+      <c r="N224" s="3" t="n"/>
+      <c r="O224" s="3" t="n"/>
+      <c r="P224" s="3" t="n"/>
+    </row>
     <row r="225"/>
     <row r="226"/>
-    <row r="227">
-      <c r="A227" s="7" t="inlineStr">
+    <row r="227"/>
+    <row r="228">
+      <c r="A228" s="7" t="inlineStr">
         <is>
           <t>subScreenTable</t>
         </is>
       </c>
-      <c r="B227" s="1" t="inlineStr">
+      <c r="B228" s="1" t="inlineStr">
         <is>
           <t>Sub Screen</t>
         </is>
       </c>
-      <c r="C227" s="3" t="inlineStr">
+      <c r="C228" s="3" t="inlineStr">
         <is>
           <t>Sub Screen Name</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="D228" s="3" t="inlineStr">
         <is>
           <t>Field Groups</t>
         </is>
       </c>
-      <c r="E227" s="3" t="inlineStr">
+      <c r="E228" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="228">
-      <c r="C228" s="11" t="inlineStr">
-        <is>
-          <t>additionalPropsDialog</t>
-        </is>
-      </c>
-      <c r="D228" s="11" t="inlineStr">
-        <is>
-          <t>dialogAdditionalPropsFg</t>
-        </is>
-      </c>
-      <c r="E228" s="11" t="n"/>
     </row>
     <row r="229">
       <c r="C229" s="11" t="inlineStr">
         <is>
-          <t>copyPramsDialog</t>
+          <t>additionalPropsDialog</t>
         </is>
       </c>
       <c r="D229" s="11" t="inlineStr">
         <is>
-          <t>dialogCopyPramsFg</t>
+          <t>dialogAdditionalPropsFg</t>
         </is>
       </c>
       <c r="E229" s="11" t="n"/>
@@ -8545,12 +8784,12 @@
     <row r="230">
       <c r="C230" s="11" t="inlineStr">
         <is>
-          <t>deleteScreenDialog</t>
+          <t>copyPramsDialog</t>
         </is>
       </c>
       <c r="D230" s="11" t="inlineStr">
         <is>
-          <t>dialogDeleteScreenHtml</t>
+          <t>dialogCopyPramsFg</t>
         </is>
       </c>
       <c r="E230" s="11" t="n"/>
@@ -8558,12 +8797,12 @@
     <row r="231">
       <c r="C231" s="11" t="inlineStr">
         <is>
-          <t>Main Screen</t>
+          <t>deleteScreenDialog</t>
         </is>
       </c>
       <c r="D231" s="11" t="inlineStr">
         <is>
-          <t>fgHeaderFooterDtlFg, fgHeaderFooterListFg, fgHeaderFooterToolbar, fgLinkDtlFg, fgLinkListFg, fgLinkToolbar, fgToolbar, fieldGroupDtlFg, fieldGroupListFg, fieldListFg, importFg, recordsetListFg, recordsetToolbar, screenDtlFg, screenSelectionFg, screenToolbar1, screenToolbar2, subScreenFg, subScreenToolbar</t>
+          <t>dialogDeleteScreenHtml</t>
         </is>
       </c>
       <c r="E231" s="11" t="n"/>
@@ -8571,12 +8810,12 @@
     <row r="232">
       <c r="C232" s="11" t="inlineStr">
         <is>
-          <t>resetRevDialog</t>
+          <t>Main Screen</t>
         </is>
       </c>
       <c r="D232" s="11" t="inlineStr">
         <is>
-          <t>dialogResetRevFg</t>
+          <t>fgHeaderFooterDtlFg, fgHeaderFooterListFg, fgHeaderFooterToolbar, fgLinkDtlFg, fgLinkListFg, fgLinkToolbar, fgToolbar, fieldGroupDtlFg, fieldGroupListFg, fieldListFg, importFg, recordsetListFg, recordsetToolbar, screenDtlFg, screenSelectionFg, screenToolbar1, screenToolbar2, subScreenFg, subScreenToolbar</t>
         </is>
       </c>
       <c r="E232" s="11" t="n"/>
@@ -8584,176 +8823,189 @@
     <row r="233">
       <c r="C233" s="11" t="inlineStr">
         <is>
+          <t>resetRevDialog</t>
+        </is>
+      </c>
+      <c r="D233" s="11" t="inlineStr">
+        <is>
+          <t>dialogResetRevFg</t>
+        </is>
+      </c>
+      <c r="E233" s="11" t="n"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="11" t="inlineStr">
+        <is>
           <t>widgetPramsDialog</t>
         </is>
       </c>
-      <c r="D233" s="11" t="inlineStr">
+      <c r="D234" s="11" t="inlineStr">
         <is>
           <t>dialogWidgetPramsFg, dialogWidgetDialogPramsFg</t>
         </is>
       </c>
-      <c r="E233" s="11" t="n"/>
-    </row>
-    <row r="234">
-      <c r="C234" s="5" t="inlineStr">
+      <c r="E234" s="11" t="n"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D234" s="3" t="n"/>
-      <c r="E234" s="3" t="n"/>
-    </row>
-    <row r="235"/>
+      <c r="D235" s="3" t="n"/>
+      <c r="E235" s="3" t="n"/>
+    </row>
     <row r="236"/>
-    <row r="237">
-      <c r="B237" s="1" t="n"/>
-    </row>
+    <row r="237"/>
     <row r="238">
-      <c r="A238" s="7" t="inlineStr">
+      <c r="B238" s="1" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="7" t="inlineStr">
         <is>
           <t>fieldGroupLinkTable</t>
         </is>
       </c>
-      <c r="B238" s="1" t="inlineStr">
+      <c r="B239" s="1" t="inlineStr">
         <is>
           <t>Field Group Links</t>
         </is>
       </c>
-      <c r="C238" s="3" t="inlineStr">
+      <c r="C239" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D238" s="3" t="inlineStr">
+      <c r="D239" s="3" t="inlineStr">
         <is>
           <t>Local Key</t>
         </is>
       </c>
-      <c r="E238" s="3" t="inlineStr">
+      <c r="E239" s="3" t="inlineStr">
         <is>
           <t>Parent Field Group Name</t>
         </is>
       </c>
-      <c r="F238" s="3" t="inlineStr">
+      <c r="F239" s="3" t="inlineStr">
         <is>
           <t>Parent Key</t>
         </is>
       </c>
-      <c r="G238" s="3" t="inlineStr">
+      <c r="G239" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="C239" s="11" t="n"/>
-      <c r="D239" s="11" t="n"/>
-      <c r="E239" s="11" t="n"/>
-      <c r="F239" s="11" t="n"/>
-      <c r="G239" s="11" t="n"/>
-    </row>
     <row r="240">
-      <c r="C240" s="5" t="inlineStr">
+      <c r="C240" s="11" t="n"/>
+      <c r="D240" s="11" t="n"/>
+      <c r="E240" s="11" t="n"/>
+      <c r="F240" s="11" t="n"/>
+      <c r="G240" s="11" t="n"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D240" s="3" t="n"/>
-      <c r="E240" s="3" t="n"/>
-      <c r="F240" s="3" t="n"/>
-      <c r="G240" s="3" t="n"/>
-    </row>
-    <row r="241"/>
+      <c r="D241" s="3" t="n"/>
+      <c r="E241" s="3" t="n"/>
+      <c r="F241" s="3" t="n"/>
+      <c r="G241" s="3" t="n"/>
+    </row>
     <row r="242"/>
-    <row r="243">
-      <c r="B243" s="16" t="inlineStr">
+    <row r="243"/>
+    <row r="244">
+      <c r="B244" s="16" t="inlineStr">
         <is>
           <t>Table Header and Footer for Field Groups</t>
         </is>
       </c>
-      <c r="E243" s="8" t="inlineStr">
+      <c r="E244" s="8" t="inlineStr">
         <is>
           <t>add as many levels as needed</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="12" t="inlineStr">
+    <row r="245">
+      <c r="A245" s="12" t="inlineStr">
         <is>
           <t>headerFooterTable</t>
         </is>
       </c>
-      <c r="B244" s="13" t="n"/>
-      <c r="C244" s="17" t="inlineStr">
+      <c r="B245" s="13" t="n"/>
+      <c r="C245" s="17" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D244" s="17" t="inlineStr">
+      <c r="D245" s="17" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="E244" s="17" t="inlineStr">
+      <c r="E245" s="17" t="inlineStr">
         <is>
           <t>Header Level 1</t>
         </is>
       </c>
-      <c r="F244" s="17" t="inlineStr">
+      <c r="F245" s="17" t="inlineStr">
         <is>
           <t>Header Level 2</t>
         </is>
       </c>
-      <c r="G244" s="17" t="inlineStr">
+      <c r="G245" s="17" t="inlineStr">
         <is>
           <t>Header Level 3</t>
         </is>
       </c>
-      <c r="H244" s="17" t="inlineStr">
+      <c r="H245" s="17" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="I244" s="17" t="inlineStr">
+      <c r="I245" s="17" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="K244" s="8" t="inlineStr">
+      <c r="K245" s="8" t="inlineStr">
         <is>
           <t>optional for table field groups only</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="C245" s="11" t="n"/>
-      <c r="D245" s="11" t="n"/>
-      <c r="E245" s="11" t="n"/>
-      <c r="F245" s="11" t="n"/>
-      <c r="G245" s="11" t="n"/>
-      <c r="H245" s="11" t="n"/>
-      <c r="I245" s="11" t="n"/>
-      <c r="K245" s="8" t="inlineStr">
+    <row r="246">
+      <c r="C246" s="11" t="n"/>
+      <c r="D246" s="11" t="n"/>
+      <c r="E246" s="11" t="n"/>
+      <c r="F246" s="11" t="n"/>
+      <c r="G246" s="11" t="n"/>
+      <c r="H246" s="11" t="n"/>
+      <c r="I246" s="11" t="n"/>
+      <c r="K246" s="8" t="inlineStr">
         <is>
           <t>this is only an example, does not match the above definition</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="C246" s="5" t="inlineStr">
+    <row r="247">
+      <c r="C247" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D246" s="3" t="n"/>
-      <c r="E246" s="3" t="n"/>
-      <c r="F246" s="3" t="n"/>
-      <c r="G246" s="3" t="n"/>
-      <c r="H246" s="3" t="n"/>
-      <c r="I246" s="3" t="n"/>
-    </row>
-    <row r="247">
-      <c r="H247" s="8" t="n"/>
+      <c r="D247" s="3" t="n"/>
+      <c r="E247" s="3" t="n"/>
+      <c r="F247" s="3" t="n"/>
+      <c r="G247" s="3" t="n"/>
+      <c r="H247" s="3" t="n"/>
+      <c r="I247" s="3" t="n"/>
+    </row>
+    <row r="248">
+      <c r="H248" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
